--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35033.53210665918</v>
+        <v>-46225.57262160253</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19367626.17766524</v>
+        <v>19335135.34875305</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>979748.2886650692</v>
+        <v>996322.7943539906</v>
       </c>
     </row>
     <row r="11">
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.30034163380572</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>7.12715935579235</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8.091688641907758</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3003416338057192</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>9.214400107292404</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.505703897832523</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.040345688132874</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2.672798411734712</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>30.47290791452698</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>30.47290791452698</v>
+        <v>14.3147579509075</v>
       </c>
       <c r="E11" t="n">
-        <v>30.47290791452698</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>30.47290791452698</v>
       </c>
       <c r="G11" t="n">
-        <v>26.84053729111535</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>12.52577934020787</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>30.47290791452698</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07019175149009</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>30.47290791452698</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.77034553962527</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>30.47290791452698</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>30.47290791452698</v>
       </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>26.84053729111537</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.193140908565963</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.291950357779633</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>8.485091266345597</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.105877770346907</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>30.47290791452697</v>
@@ -1627,7 +1627,7 @@
         <v>30.47290791452697</v>
       </c>
       <c r="I14" t="n">
-        <v>20.73465952076844</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>26.84053729111535</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>30.47290791452697</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>30.47290791452697</v>
       </c>
       <c r="C15" t="n">
         <v>30.47290791452697</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15.07019175149007</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.77034553962527</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>26.84053729111535</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.250654435163216</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.291950357779633</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.942486473402749</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>8.485091266345599</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>30.47290791452697</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="F17" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>26.84053729111534</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>26.84053729111538</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>26.84053729111538</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>26.84053729111535</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>8.485091266345611</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>8.485091266345584</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>30.47290791452697</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>14.31475795090752</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>14.31475795090748</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>17.2685464692005</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.57199082191487</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="U21" t="n">
-        <v>30.47290791452697</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="V21" t="n">
-        <v>30.47290791452697</v>
+        <v>26.84053729111539</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>8.485091266345599</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.485091266345611</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,64 +2317,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>77.59291375621579</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>88.09368046800155</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>88.09368046800155</v>
       </c>
-      <c r="F23" t="n">
+      <c r="U23" t="n">
         <v>88.09368046800155</v>
-      </c>
-      <c r="G23" t="n">
-        <v>77.59291375621579</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>88.09368046800155</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>88.09368046800155</v>
       </c>
       <c r="H24" t="n">
-        <v>49.96045477193429</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>51.01694103877158</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>12.88371534270434</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2478,64 +2478,64 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>76.72452921209074</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>13.04715655754852</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>64.54575719866727</v>
       </c>
       <c r="V26" t="n">
-        <v>88.09368046800155</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>88.09368046800155</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>88.09368046800155</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="Y26" t="n">
-        <v>77.59291375621579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>12.88371534270428</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="U27" t="n">
-        <v>12.88371534270434</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>88.09368046800155</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="X27" t="n">
-        <v>88.09368046800155</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>88.09368046800155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>76.72452921209074</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2806,58 +2806,58 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>77.59291375621579</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13.04715655754852</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>88.09368046800155</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
+      <c r="W29" t="n">
         <v>88.09368046800155</v>
       </c>
-      <c r="T29" t="n">
-        <v>88.09368046800155</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>64.54575719866727</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>88.09368046800155</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6.985051861108899</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.898663481595438</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>88.09368046800155</v>
-      </c>
-      <c r="U30" t="n">
-        <v>12.88371534270434</v>
-      </c>
-      <c r="V30" t="n">
-        <v>88.09368046800155</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2967,40 +2967,40 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>76.72452921209074</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>88.09368046800155</v>
       </c>
-      <c r="C32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>88.09368046800155</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>77.59291375621579</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>77.59291375621578</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>88.09368046800155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,64 +3107,64 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>88.09368046800155</v>
+      </c>
+      <c r="E33" t="n">
+        <v>88.09368046800155</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
         <v>12.88371534270434</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>88.09368046800155</v>
-      </c>
       <c r="U33" t="n">
-        <v>88.09368046800155</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>73.7744539444644</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.950075267626374</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>76.72452921209074</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>77.59291375621572</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>77.59291375621578</v>
       </c>
       <c r="W35" t="n">
-        <v>88.09368046800154</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="X35" t="n">
-        <v>88.09368046800154</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>88.09368046800154</v>
+        <v>88.09368046800155</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>49.96045477193429</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>74.9684294176455</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="U36" t="n">
-        <v>88.09368046800154</v>
+        <v>51.01694103877161</v>
       </c>
       <c r="V36" t="n">
-        <v>88.09368046800154</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="W36" t="n">
-        <v>26.00896639306039</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.671637333691518</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>35.31988941157481</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>37.73300246682439</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>76.72452921209074</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>64.54575719866722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>88.09368046800154</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>13.04715655754853</v>
+        <v>13.04715655754852</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="T38" t="n">
-        <v>88.09368046800154</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="U38" t="n">
-        <v>88.09368046800154</v>
+        <v>64.54575719866727</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>49.96045477193429</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>51.01694103877158</v>
       </c>
       <c r="U39" t="n">
-        <v>88.09368046800154</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="W39" t="n">
-        <v>12.88371534270431</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>88.09368046800154</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>88.09368046800154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>76.72452921209067</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>76.72452921209074</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>64.54575719866727</v>
       </c>
       <c r="G41" t="n">
-        <v>88.09368046800154</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>13.04715655754853</v>
+        <v>13.04715655754852</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>88.09368046800154</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>64.54575719866722</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>88.09368046800154</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>88.09368046800154</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>74.9684294176455</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>88.09368046800154</v>
+        <v>64.14219208912762</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>51.01694103877155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>76.72452921209066</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>76.72452921209074</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,73 +3979,73 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>88.09368046800155</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>88.09368046800155</v>
       </c>
-      <c r="F44" t="n">
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>77.59291375621578</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>88.09368046800155</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13.04715655754852</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>64.54575719866727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,64 +4058,64 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>12.88371534270434</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
         <v>88.09368046800155</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>12.88371534270434</v>
       </c>
       <c r="U45" t="n">
         <v>88.09368046800155</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>88.09368046800155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>76.72452921209074</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>76.72452921209077</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>17.29755622026296</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17.29755622026296</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>17.29755622026296</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>9.124133349649064</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.9507104790351661</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.9507104790351661</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.9507104790351661</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.9507104790351661</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3.221710050338442</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>11.23248180582712</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>19.2432535613158</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>17.29755622026296</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.29755622026296</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>17.29755622026296</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>17.29755622026296</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>17.29755622026296</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>17.29755622026296</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>17.29755622026296</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>8.174748029065183</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>16.18551978455386</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>19.68574965415786</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>27.69652140964654</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>16.99418083258042</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.6473350913526207</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.820757961966519</v>
+        <v>5.294274729098539</v>
       </c>
       <c r="C8" t="n">
-        <v>8.820757961966519</v>
+        <v>5.294274729098539</v>
       </c>
       <c r="D8" t="n">
-        <v>8.820757961966519</v>
+        <v>5.294274729098539</v>
       </c>
       <c r="E8" t="n">
-        <v>8.820757961966519</v>
+        <v>5.294274729098539</v>
       </c>
       <c r="F8" t="n">
-        <v>8.820757961966519</v>
+        <v>5.294274729098539</v>
       </c>
       <c r="G8" t="n">
-        <v>8.820757961966519</v>
+        <v>5.294274729098539</v>
       </c>
       <c r="H8" t="n">
-        <v>8.820757961966519</v>
+        <v>5.294274729098539</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6473350913526207</v>
+        <v>5.294274729098539</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6473350913526207</v>
+        <v>3.442330717834865</v>
       </c>
       <c r="L8" t="n">
-        <v>3.221710050338442</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M8" t="n">
-        <v>11.23248180582712</v>
+        <v>27.12238855716246</v>
       </c>
       <c r="N8" t="n">
-        <v>19.2432535613158</v>
+        <v>42.02986227404679</v>
       </c>
       <c r="O8" t="n">
-        <v>25.47097909087686</v>
+        <v>54.87532469310607</v>
       </c>
       <c r="P8" t="n">
-        <v>25.47097909087686</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Q8" t="n">
-        <v>17.29755622026296</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="R8" t="n">
-        <v>9.124133349649064</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="S8" t="n">
-        <v>8.820757961966519</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="T8" t="n">
-        <v>8.820757961966519</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="U8" t="n">
-        <v>8.820757961966519</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="V8" t="n">
-        <v>8.820757961966519</v>
+        <v>5.294274729098539</v>
       </c>
       <c r="W8" t="n">
-        <v>8.820757961966519</v>
+        <v>5.294274729098539</v>
       </c>
       <c r="X8" t="n">
-        <v>8.820757961966519</v>
+        <v>5.294274729098539</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.820757961966519</v>
+        <v>5.294274729098539</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.228854180072343</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="C9" t="n">
-        <v>8.228854180072343</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="D9" t="n">
-        <v>8.228854180072343</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="E9" t="n">
-        <v>8.228854180072343</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="F9" t="n">
-        <v>8.228854180072343</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="G9" t="n">
-        <v>8.228854180072343</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H9" t="n">
-        <v>8.228854180072343</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I9" t="n">
-        <v>8.228854180072343</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6473350913526207</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L9" t="n">
-        <v>8.174748029065183</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M9" t="n">
-        <v>16.18551978455386</v>
+        <v>21.90820629660674</v>
       </c>
       <c r="N9" t="n">
-        <v>24.19629154004254</v>
+        <v>36.81568001349108</v>
       </c>
       <c r="O9" t="n">
-        <v>27.69652140964654</v>
+        <v>51.54902890335264</v>
       </c>
       <c r="P9" t="n">
-        <v>32.36675456763103</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.27549629678975</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="R9" t="n">
-        <v>19.10207342617585</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="S9" t="n">
-        <v>10.92865055556195</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="T9" t="n">
-        <v>8.228854180072343</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="U9" t="n">
-        <v>8.228854180072343</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="V9" t="n">
-        <v>8.228854180072343</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="W9" t="n">
-        <v>8.228854180072343</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="X9" t="n">
-        <v>8.228854180072343</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.228854180072343</v>
+        <v>46.83511179372537</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6473350913526207</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>121.8916316581079</v>
+        <v>47.67789916390406</v>
       </c>
       <c r="C11" t="n">
-        <v>121.8916316581079</v>
+        <v>47.67789916390406</v>
       </c>
       <c r="D11" t="n">
-        <v>91.11091659292916</v>
+        <v>33.21854769834093</v>
       </c>
       <c r="E11" t="n">
-        <v>60.33020152775038</v>
+        <v>33.21854769834093</v>
       </c>
       <c r="F11" t="n">
-        <v>29.54948646257161</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="G11" t="n">
-        <v>2.437832633162159</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="H11" t="n">
-        <v>2.437832633162159</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="I11" t="n">
-        <v>2.437832633162159</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="J11" t="n">
         <v>3.417978136102555</v>
@@ -5047,13 +5047,13 @@
         <v>13.13197138347078</v>
       </c>
       <c r="L11" t="n">
-        <v>31.17957527878676</v>
+        <v>31.17957527878674</v>
       </c>
       <c r="M11" t="n">
-        <v>56.40729559797728</v>
+        <v>56.40729559797726</v>
       </c>
       <c r="N11" t="n">
-        <v>82.79297066826223</v>
+        <v>82.7929706682622</v>
       </c>
       <c r="O11" t="n">
         <v>105.5412354747657</v>
@@ -5065,28 +5065,28 @@
         <v>121.8916316581079</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8916316581079</v>
+        <v>109.2393292942616</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8916316581079</v>
+        <v>109.2393292942616</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8916316581079</v>
+        <v>109.2393292942616</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8916316581079</v>
+        <v>109.2393292942616</v>
       </c>
       <c r="V11" t="n">
-        <v>121.8916316581079</v>
+        <v>109.2393292942616</v>
       </c>
       <c r="W11" t="n">
-        <v>121.8916316581079</v>
+        <v>109.2393292942616</v>
       </c>
       <c r="X11" t="n">
-        <v>121.8916316581079</v>
+        <v>109.2393292942616</v>
       </c>
       <c r="Y11" t="n">
-        <v>121.8916316581079</v>
+        <v>78.45861422908283</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.44096360893699</v>
+        <v>33.21854769834093</v>
       </c>
       <c r="C12" t="n">
-        <v>48.44096360893699</v>
+        <v>33.21854769834093</v>
       </c>
       <c r="D12" t="n">
-        <v>48.44096360893699</v>
+        <v>33.21854769834093</v>
       </c>
       <c r="E12" t="n">
-        <v>48.44096360893699</v>
+        <v>33.21854769834093</v>
       </c>
       <c r="F12" t="n">
         <v>33.21854769834093</v>
       </c>
       <c r="G12" t="n">
-        <v>2.437832633162159</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="H12" t="n">
-        <v>2.437832633162159</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="I12" t="n">
-        <v>2.437832633162159</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="J12" t="n">
-        <v>2.437832633162159</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="K12" t="n">
         <v>10.90930567516434</v>
@@ -5129,7 +5129,7 @@
         <v>29.82765956255554</v>
       </c>
       <c r="M12" t="n">
-        <v>55.04997730602896</v>
+        <v>55.04997730602895</v>
       </c>
       <c r="N12" t="n">
         <v>83.28125954763226</v>
@@ -5144,28 +5144,28 @@
         <v>121.8916316581079</v>
       </c>
       <c r="R12" t="n">
-        <v>110.0023937392945</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="S12" t="n">
-        <v>79.22167867411576</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T12" t="n">
-        <v>48.44096360893699</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U12" t="n">
-        <v>48.44096360893699</v>
+        <v>91.11091659292916</v>
       </c>
       <c r="V12" t="n">
-        <v>48.44096360893699</v>
+        <v>60.33020152775039</v>
       </c>
       <c r="W12" t="n">
-        <v>48.44096360893699</v>
+        <v>33.21854769834093</v>
       </c>
       <c r="X12" t="n">
-        <v>48.44096360893699</v>
+        <v>33.21854769834093</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.44096360893699</v>
+        <v>33.21854769834093</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="C13" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="D13" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="E13" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="F13" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="G13" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="H13" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="I13" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="J13" t="n">
-        <v>4.752934004656739</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="K13" t="n">
-        <v>2.437832633162159</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="L13" t="n">
-        <v>4.393946466374035</v>
+        <v>4.393946466374034</v>
       </c>
       <c r="M13" t="n">
-        <v>6.985865225902417</v>
+        <v>6.985865225902416</v>
       </c>
       <c r="N13" t="n">
         <v>10.79300191026905</v>
@@ -5241,10 +5241,10 @@
         <v>11.00863189209711</v>
       </c>
       <c r="X13" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162158</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="C14" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="D14" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="E14" t="n">
-        <v>115.7240783547272</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="F14" t="n">
-        <v>84.94336328954842</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="G14" t="n">
-        <v>54.16264822436965</v>
+        <v>33.21854769834092</v>
       </c>
       <c r="H14" t="n">
-        <v>23.38193315919088</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="I14" t="n">
         <v>2.437832633162158</v>
@@ -5284,13 +5284,13 @@
         <v>13.13197138347078</v>
       </c>
       <c r="L14" t="n">
-        <v>31.17957527878674</v>
+        <v>31.17957527878667</v>
       </c>
       <c r="M14" t="n">
-        <v>56.40729559797727</v>
+        <v>56.4072955979772</v>
       </c>
       <c r="N14" t="n">
-        <v>82.79297066826217</v>
+        <v>82.79297066826214</v>
       </c>
       <c r="O14" t="n">
         <v>105.5412354747657</v>
@@ -5305,25 +5305,25 @@
         <v>121.8916316581079</v>
       </c>
       <c r="S14" t="n">
-        <v>121.8916316581079</v>
+        <v>94.77997782869845</v>
       </c>
       <c r="T14" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="U14" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="V14" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="W14" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="X14" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="Y14" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351968</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.22167867411572</v>
+        <v>33.21854769834092</v>
       </c>
       <c r="C15" t="n">
-        <v>48.44096360893695</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="D15" t="n">
-        <v>48.44096360893695</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="E15" t="n">
-        <v>17.66024854375819</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="F15" t="n">
-        <v>17.66024854375819</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="G15" t="n">
         <v>2.437832633162158</v>
@@ -5360,10 +5360,10 @@
         <v>2.437832633162158</v>
       </c>
       <c r="K15" t="n">
-        <v>10.90930567516434</v>
+        <v>10.90930567516435</v>
       </c>
       <c r="L15" t="n">
-        <v>29.82765956255555</v>
+        <v>29.82765956255551</v>
       </c>
       <c r="M15" t="n">
         <v>55.04997730602895</v>
@@ -5381,28 +5381,28 @@
         <v>121.8916316581079</v>
       </c>
       <c r="R15" t="n">
-        <v>110.0023937392945</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="S15" t="n">
-        <v>110.0023937392945</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T15" t="n">
-        <v>79.22167867411572</v>
+        <v>91.11091659292913</v>
       </c>
       <c r="U15" t="n">
-        <v>79.22167867411572</v>
+        <v>91.11091659292913</v>
       </c>
       <c r="V15" t="n">
-        <v>79.22167867411572</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="W15" t="n">
-        <v>79.22167867411572</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="X15" t="n">
-        <v>79.22167867411572</v>
+        <v>63.99926276351968</v>
       </c>
       <c r="Y15" t="n">
-        <v>79.22167867411572</v>
+        <v>63.99926276351968</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="C16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="D16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="E16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="F16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="G16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="H16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="I16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="J16" t="n">
-        <v>4.752934004656737</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="K16" t="n">
         <v>2.437832633162158</v>
@@ -5454,34 +5454,34 @@
         <v>11.00863189209711</v>
       </c>
       <c r="P16" t="n">
-        <v>8.03642333310443</v>
+        <v>11.00863189209711</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.03642333310443</v>
+        <v>11.00863189209711</v>
       </c>
       <c r="R16" t="n">
-        <v>8.03642333310443</v>
+        <v>11.00863189209711</v>
       </c>
       <c r="S16" t="n">
-        <v>8.03642333310443</v>
+        <v>11.00863189209711</v>
       </c>
       <c r="T16" t="n">
-        <v>8.03642333310443</v>
+        <v>11.00863189209711</v>
       </c>
       <c r="U16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="V16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="W16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="X16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.03642333310443</v>
+        <v>2.437832633162158</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351975</v>
       </c>
       <c r="C17" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351975</v>
       </c>
       <c r="D17" t="n">
-        <v>91.11091659292913</v>
+        <v>63.99926276351975</v>
       </c>
       <c r="E17" t="n">
-        <v>60.33020152775036</v>
+        <v>33.21854769834096</v>
       </c>
       <c r="F17" t="n">
-        <v>29.5494864625716</v>
+        <v>33.21854769834096</v>
       </c>
       <c r="G17" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="H17" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="I17" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="J17" t="n">
-        <v>3.417978136102533</v>
+        <v>3.41797813610259</v>
       </c>
       <c r="K17" t="n">
-        <v>13.13197138347074</v>
+        <v>13.13197138347083</v>
       </c>
       <c r="L17" t="n">
-        <v>31.1795752787867</v>
+        <v>31.1795752787868</v>
       </c>
       <c r="M17" t="n">
-        <v>56.40729559797721</v>
+        <v>56.40729559797731</v>
       </c>
       <c r="N17" t="n">
-        <v>82.79297066826214</v>
+        <v>82.79297066826226</v>
       </c>
       <c r="O17" t="n">
-        <v>105.5412354747656</v>
+        <v>105.5412354747658</v>
       </c>
       <c r="P17" t="n">
-        <v>119.3499405478293</v>
+        <v>119.3499405478294</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.8916316581079</v>
+        <v>121.891631658108</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8916316581079</v>
+        <v>121.891631658108</v>
       </c>
       <c r="S17" t="n">
-        <v>121.8916316581079</v>
+        <v>121.891631658108</v>
       </c>
       <c r="T17" t="n">
-        <v>121.8916316581079</v>
+        <v>94.77997782869855</v>
       </c>
       <c r="U17" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351975</v>
       </c>
       <c r="V17" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351975</v>
       </c>
       <c r="W17" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351975</v>
       </c>
       <c r="X17" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351975</v>
       </c>
       <c r="Y17" t="n">
-        <v>121.8916316581079</v>
+        <v>63.99926276351975</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33.21854769834092</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="C18" t="n">
-        <v>33.21854769834092</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="D18" t="n">
-        <v>33.21854769834092</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="E18" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="F18" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="G18" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="H18" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="I18" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="J18" t="n">
-        <v>2.437832633162179</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="K18" t="n">
-        <v>10.90930567516436</v>
+        <v>10.90930567516438</v>
       </c>
       <c r="L18" t="n">
-        <v>29.82765956255555</v>
+        <v>29.8276595625556</v>
       </c>
       <c r="M18" t="n">
-        <v>55.04997730602896</v>
+        <v>55.04997730602902</v>
       </c>
       <c r="N18" t="n">
-        <v>83.28125954763226</v>
+        <v>83.28125954763233</v>
       </c>
       <c r="O18" t="n">
-        <v>105.4966506502406</v>
+        <v>105.4966506502407</v>
       </c>
       <c r="P18" t="n">
-        <v>120.1848372890272</v>
+        <v>120.1848372890273</v>
       </c>
       <c r="Q18" t="n">
-        <v>121.8916316581079</v>
+        <v>121.891631658108</v>
       </c>
       <c r="R18" t="n">
-        <v>121.8916316581079</v>
+        <v>121.891631658108</v>
       </c>
       <c r="S18" t="n">
-        <v>94.77997782869845</v>
+        <v>91.11091659292923</v>
       </c>
       <c r="T18" t="n">
-        <v>94.77997782869845</v>
+        <v>60.33020152775043</v>
       </c>
       <c r="U18" t="n">
-        <v>94.77997782869845</v>
+        <v>60.33020152775043</v>
       </c>
       <c r="V18" t="n">
-        <v>94.77997782869845</v>
+        <v>29.54948646257164</v>
       </c>
       <c r="W18" t="n">
-        <v>94.77997782869845</v>
+        <v>29.54948646257164</v>
       </c>
       <c r="X18" t="n">
-        <v>63.99926276351968</v>
+        <v>29.54948646257164</v>
       </c>
       <c r="Y18" t="n">
-        <v>33.21854769834092</v>
+        <v>29.54948646257164</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.437832633162158</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="C19" t="n">
-        <v>2.437832633162158</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="D19" t="n">
-        <v>2.437832633162158</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="E19" t="n">
-        <v>2.437832633162158</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="F19" t="n">
-        <v>2.437832633162158</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="G19" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="H19" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="I19" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="J19" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="K19" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="L19" t="n">
-        <v>4.393946466374031</v>
+        <v>4.39394646637404</v>
       </c>
       <c r="M19" t="n">
-        <v>6.985865225902409</v>
+        <v>6.985865225902426</v>
       </c>
       <c r="N19" t="n">
-        <v>10.79300191026904</v>
+        <v>10.79300191026906</v>
       </c>
       <c r="O19" t="n">
-        <v>11.00863189209709</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="P19" t="n">
-        <v>11.00863189209709</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.00863189209709</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="R19" t="n">
-        <v>11.00863189209709</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="S19" t="n">
-        <v>11.00863189209709</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="T19" t="n">
-        <v>11.00863189209709</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="U19" t="n">
-        <v>11.00863189209709</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="V19" t="n">
-        <v>2.437832633162158</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="W19" t="n">
-        <v>2.437832633162158</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="X19" t="n">
-        <v>2.437832633162158</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.437832633162158</v>
+        <v>11.00863189209712</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.21854769834092</v>
+        <v>78.45861422908291</v>
       </c>
       <c r="C20" t="n">
-        <v>33.21854769834092</v>
+        <v>78.45861422908291</v>
       </c>
       <c r="D20" t="n">
-        <v>2.437832633162158</v>
+        <v>47.67789916390412</v>
       </c>
       <c r="E20" t="n">
-        <v>2.437832633162158</v>
+        <v>16.89718409872532</v>
       </c>
       <c r="F20" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="G20" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="H20" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="I20" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="J20" t="n">
-        <v>3.417978136102533</v>
+        <v>3.417978136102562</v>
       </c>
       <c r="K20" t="n">
-        <v>13.13197138347077</v>
+        <v>13.1319713834708</v>
       </c>
       <c r="L20" t="n">
-        <v>31.17957527878673</v>
+        <v>31.17957527878676</v>
       </c>
       <c r="M20" t="n">
-        <v>56.40729559797725</v>
+        <v>56.4072955979773</v>
       </c>
       <c r="N20" t="n">
-        <v>82.79297066826217</v>
+        <v>82.79297066826226</v>
       </c>
       <c r="O20" t="n">
-        <v>105.5412354747657</v>
+        <v>105.5412354747658</v>
       </c>
       <c r="P20" t="n">
-        <v>119.3499405478293</v>
+        <v>119.3499405478294</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.8916316581079</v>
+        <v>121.891631658108</v>
       </c>
       <c r="R20" t="n">
-        <v>109.2393292942616</v>
+        <v>109.2393292942617</v>
       </c>
       <c r="S20" t="n">
-        <v>109.2393292942616</v>
+        <v>109.2393292942617</v>
       </c>
       <c r="T20" t="n">
-        <v>109.2393292942616</v>
+        <v>109.2393292942617</v>
       </c>
       <c r="U20" t="n">
-        <v>94.77997782869845</v>
+        <v>109.2393292942617</v>
       </c>
       <c r="V20" t="n">
-        <v>63.99926276351968</v>
+        <v>109.2393292942617</v>
       </c>
       <c r="W20" t="n">
-        <v>63.99926276351968</v>
+        <v>109.2393292942617</v>
       </c>
       <c r="X20" t="n">
-        <v>33.21854769834092</v>
+        <v>109.2393292942617</v>
       </c>
       <c r="Y20" t="n">
-        <v>33.21854769834092</v>
+        <v>109.2393292942617</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60.33020152775039</v>
+        <v>33.21854769834096</v>
       </c>
       <c r="C21" t="n">
-        <v>60.33020152775039</v>
+        <v>33.21854769834096</v>
       </c>
       <c r="D21" t="n">
-        <v>42.88722529623473</v>
+        <v>33.21854769834096</v>
       </c>
       <c r="E21" t="n">
-        <v>12.10651023105597</v>
+        <v>33.21854769834096</v>
       </c>
       <c r="F21" t="n">
-        <v>12.10651023105597</v>
+        <v>33.21854769834096</v>
       </c>
       <c r="G21" t="n">
-        <v>12.10651023105597</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="H21" t="n">
-        <v>12.10651023105597</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="I21" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="J21" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162213</v>
       </c>
       <c r="K21" t="n">
-        <v>10.90930567516434</v>
+        <v>10.9093056751644</v>
       </c>
       <c r="L21" t="n">
-        <v>29.82765956255554</v>
+        <v>29.82765956255561</v>
       </c>
       <c r="M21" t="n">
-        <v>55.04997730602895</v>
+        <v>55.04997730602903</v>
       </c>
       <c r="N21" t="n">
-        <v>83.28125954763226</v>
+        <v>83.28125954763235</v>
       </c>
       <c r="O21" t="n">
-        <v>105.4966506502406</v>
+        <v>105.4966506502407</v>
       </c>
       <c r="P21" t="n">
-        <v>120.1848372890272</v>
+        <v>120.1848372890273</v>
       </c>
       <c r="Q21" t="n">
-        <v>121.8916316581079</v>
+        <v>121.891631658108</v>
       </c>
       <c r="R21" t="n">
-        <v>121.8916316581079</v>
+        <v>121.891631658108</v>
       </c>
       <c r="S21" t="n">
-        <v>121.8916316581079</v>
+        <v>121.891631658108</v>
       </c>
       <c r="T21" t="n">
-        <v>121.8916316581079</v>
+        <v>91.11091659292924</v>
       </c>
       <c r="U21" t="n">
-        <v>91.11091659292916</v>
+        <v>60.33020152775045</v>
       </c>
       <c r="V21" t="n">
-        <v>60.33020152775039</v>
+        <v>33.21854769834096</v>
       </c>
       <c r="W21" t="n">
-        <v>60.33020152775039</v>
+        <v>33.21854769834096</v>
       </c>
       <c r="X21" t="n">
-        <v>60.33020152775039</v>
+        <v>33.21854769834096</v>
       </c>
       <c r="Y21" t="n">
-        <v>60.33020152775039</v>
+        <v>33.21854769834096</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="C22" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="D22" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="E22" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="F22" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="G22" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="H22" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="I22" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="J22" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="K22" t="n">
-        <v>2.437832633162158</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="L22" t="n">
-        <v>4.393946466374034</v>
+        <v>4.39394646637404</v>
       </c>
       <c r="M22" t="n">
-        <v>6.985865225902416</v>
+        <v>6.985865225902426</v>
       </c>
       <c r="N22" t="n">
-        <v>10.79300191026905</v>
+        <v>10.79300191026906</v>
       </c>
       <c r="O22" t="n">
-        <v>11.00863189209711</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="P22" t="n">
-        <v>11.00863189209711</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.00863189209711</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="R22" t="n">
-        <v>11.00863189209711</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="S22" t="n">
-        <v>11.00863189209711</v>
+        <v>11.00863189209712</v>
       </c>
       <c r="T22" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="U22" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="V22" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="W22" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="X22" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162161</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.00863189209711</v>
+        <v>2.437832633162161</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>352.3747218720062</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="C23" t="n">
-        <v>263.3912062477622</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="D23" t="n">
-        <v>263.3912062477622</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="E23" t="n">
-        <v>174.4076906235182</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="F23" t="n">
-        <v>85.42417499927426</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="G23" t="n">
         <v>7.047494437440124</v>
@@ -6019,22 +6019,22 @@
         <v>352.3747218720062</v>
       </c>
       <c r="T23" t="n">
-        <v>352.3747218720062</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="U23" t="n">
-        <v>352.3747218720062</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="V23" t="n">
-        <v>352.3747218720062</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="W23" t="n">
-        <v>352.3747218720062</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="X23" t="n">
-        <v>352.3747218720062</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="Y23" t="n">
-        <v>352.3747218720062</v>
+        <v>174.4076906235182</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>235.4796315161648</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="C24" t="n">
-        <v>235.4796315161648</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="D24" t="n">
-        <v>146.4961158919208</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="E24" t="n">
-        <v>146.4961158919208</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="F24" t="n">
-        <v>146.4961158919208</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="G24" t="n">
-        <v>57.51260026767678</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="H24" t="n">
         <v>7.047494437440124</v>
@@ -6098,22 +6098,22 @@
         <v>287.0118951916916</v>
       </c>
       <c r="T24" t="n">
-        <v>235.4796315161648</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="U24" t="n">
-        <v>235.4796315161648</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="V24" t="n">
-        <v>235.4796315161648</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="W24" t="n">
-        <v>235.4796315161648</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="X24" t="n">
-        <v>235.4796315161648</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="Y24" t="n">
-        <v>235.4796315161648</v>
+        <v>185.0145256859281</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="C25" t="n">
         <v>7.047494437440124</v>
@@ -6183,16 +6183,16 @@
         <v>84.54701889409745</v>
       </c>
       <c r="V25" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="W25" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="X25" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.047494437440124</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="C26" t="n">
-        <v>7.047494437440124</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="D26" t="n">
-        <v>7.047494437440124</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="E26" t="n">
-        <v>7.047494437440124</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="F26" t="n">
-        <v>7.047494437440124</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="G26" t="n">
-        <v>7.047494437440124</v>
+        <v>20.22644045516591</v>
       </c>
       <c r="H26" t="n">
-        <v>7.047494437440124</v>
+        <v>20.22644045516591</v>
       </c>
       <c r="I26" t="n">
-        <v>7.047494437440124</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="J26" t="n">
         <v>24.7825204949059</v>
       </c>
       <c r="K26" t="n">
-        <v>59.60773643878169</v>
+        <v>59.60773643878173</v>
       </c>
       <c r="L26" t="n">
-        <v>108.8080325753178</v>
+        <v>108.8080325753179</v>
       </c>
       <c r="M26" t="n">
-        <v>168.6991254940436</v>
+        <v>168.6991254940437</v>
       </c>
       <c r="N26" t="n">
-        <v>230.3090627719646</v>
+        <v>230.3090627719647</v>
       </c>
       <c r="O26" t="n">
-        <v>286.3185995386593</v>
+        <v>286.3185995386596</v>
       </c>
       <c r="P26" t="n">
-        <v>328.5150307030227</v>
+        <v>328.5150307030228</v>
       </c>
       <c r="Q26" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720063</v>
       </c>
       <c r="R26" t="n">
-        <v>352.3747218720062</v>
+        <v>352.3747218720063</v>
       </c>
       <c r="S26" t="n">
-        <v>352.3747218720062</v>
+        <v>352.3747218720063</v>
       </c>
       <c r="T26" t="n">
-        <v>352.3747218720062</v>
+        <v>352.3747218720063</v>
       </c>
       <c r="U26" t="n">
-        <v>352.3747218720062</v>
+        <v>287.1769873278979</v>
       </c>
       <c r="V26" t="n">
-        <v>263.3912062477622</v>
+        <v>287.1769873278979</v>
       </c>
       <c r="W26" t="n">
-        <v>174.4076906235182</v>
+        <v>287.1769873278979</v>
       </c>
       <c r="X26" t="n">
-        <v>85.42417499927426</v>
+        <v>198.1934717036539</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.047494437440124</v>
+        <v>198.1934717036539</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.047494437440124</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="C27" t="n">
-        <v>7.047494437440124</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="D27" t="n">
-        <v>7.047494437440124</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="E27" t="n">
-        <v>7.047494437440124</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="F27" t="n">
-        <v>7.047494437440124</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="G27" t="n">
-        <v>7.047494437440124</v>
+        <v>20.0613483189596</v>
       </c>
       <c r="H27" t="n">
-        <v>7.047494437440124</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="I27" t="n">
-        <v>7.047494437440124</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="J27" t="n">
         <v>14.55245432966378</v>
@@ -6335,22 +6335,22 @@
         <v>287.0118951916916</v>
       </c>
       <c r="T27" t="n">
-        <v>287.0118951916916</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="U27" t="n">
-        <v>273.9980413101721</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="V27" t="n">
-        <v>185.0145256859281</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="W27" t="n">
-        <v>185.0145256859281</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="X27" t="n">
-        <v>96.03101006168411</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.047494437440124</v>
+        <v>109.0448639432036</v>
       </c>
     </row>
     <row r="28">
@@ -6369,22 +6369,22 @@
         <v>84.54701889409745</v>
       </c>
       <c r="E28" t="n">
-        <v>7.047494437440124</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="F28" t="n">
-        <v>7.047494437440124</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="G28" t="n">
-        <v>7.047494437440124</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="H28" t="n">
-        <v>7.047494437440124</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="I28" t="n">
-        <v>7.047494437440124</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="J28" t="n">
-        <v>7.047494437440124</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="K28" t="n">
         <v>15.06648958421999</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="C29" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="D29" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="E29" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="F29" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="G29" t="n">
-        <v>96.03101006168411</v>
+        <v>20.22644045516591</v>
       </c>
       <c r="H29" t="n">
-        <v>7.047494437440124</v>
+        <v>20.22644045516591</v>
       </c>
       <c r="I29" t="n">
         <v>7.047494437440124</v>
@@ -6466,7 +6466,7 @@
         <v>24.7825204949059</v>
       </c>
       <c r="K29" t="n">
-        <v>59.60773643878169</v>
+        <v>59.60773643878167</v>
       </c>
       <c r="L29" t="n">
         <v>108.8080325753179</v>
@@ -6490,25 +6490,25 @@
         <v>352.3747218720062</v>
       </c>
       <c r="S29" t="n">
+        <v>352.3747218720062</v>
+      </c>
+      <c r="T29" t="n">
+        <v>352.3747218720062</v>
+      </c>
+      <c r="U29" t="n">
+        <v>352.3747218720062</v>
+      </c>
+      <c r="V29" t="n">
         <v>263.3912062477622</v>
-      </c>
-      <c r="T29" t="n">
-        <v>174.4076906235182</v>
-      </c>
-      <c r="U29" t="n">
-        <v>174.4076906235182</v>
-      </c>
-      <c r="V29" t="n">
-        <v>174.4076906235182</v>
       </c>
       <c r="W29" t="n">
         <v>174.4076906235182</v>
       </c>
       <c r="X29" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="Y29" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>96.03101006168411</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="C30" t="n">
-        <v>96.03101006168411</v>
+        <v>109.0448639432037</v>
       </c>
       <c r="D30" t="n">
-        <v>96.03101006168411</v>
+        <v>109.0448639432037</v>
       </c>
       <c r="E30" t="n">
-        <v>7.047494437440124</v>
+        <v>109.0448639432037</v>
       </c>
       <c r="F30" t="n">
-        <v>7.047494437440124</v>
+        <v>109.0448639432037</v>
       </c>
       <c r="G30" t="n">
-        <v>7.047494437440124</v>
+        <v>20.06134831895966</v>
       </c>
       <c r="H30" t="n">
-        <v>7.047494437440124</v>
+        <v>13.00574037844562</v>
       </c>
       <c r="I30" t="n">
         <v>7.047494437440124</v>
@@ -6572,22 +6572,22 @@
         <v>287.0118951916916</v>
       </c>
       <c r="T30" t="n">
+        <v>287.0118951916916</v>
+      </c>
+      <c r="U30" t="n">
+        <v>287.0118951916916</v>
+      </c>
+      <c r="V30" t="n">
+        <v>287.0118951916916</v>
+      </c>
+      <c r="W30" t="n">
+        <v>287.0118951916916</v>
+      </c>
+      <c r="X30" t="n">
+        <v>287.0118951916916</v>
+      </c>
+      <c r="Y30" t="n">
         <v>198.0283795674476</v>
-      </c>
-      <c r="U30" t="n">
-        <v>185.0145256859281</v>
-      </c>
-      <c r="V30" t="n">
-        <v>96.03101006168411</v>
-      </c>
-      <c r="W30" t="n">
-        <v>96.03101006168411</v>
-      </c>
-      <c r="X30" t="n">
-        <v>96.03101006168411</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>96.03101006168411</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="C31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="D31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="E31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="F31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="G31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="H31" t="n">
         <v>7.047494437440124</v>
@@ -6648,25 +6648,25 @@
         <v>84.54701889409745</v>
       </c>
       <c r="S31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="T31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="U31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="V31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="W31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="X31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="Y31" t="n">
-        <v>84.54701889409745</v>
+        <v>7.047494437440124</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>96.03101006168411</v>
       </c>
       <c r="C32" t="n">
-        <v>7.047494437440124</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="D32" t="n">
-        <v>7.047494437440124</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="E32" t="n">
-        <v>7.047494437440124</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="F32" t="n">
-        <v>7.047494437440124</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="G32" t="n">
         <v>7.047494437440124</v>
@@ -6700,10 +6700,10 @@
         <v>7.047494437440124</v>
       </c>
       <c r="J32" t="n">
-        <v>24.78252049490591</v>
+        <v>24.7825204949059</v>
       </c>
       <c r="K32" t="n">
-        <v>59.6077364387817</v>
+        <v>59.60773643878169</v>
       </c>
       <c r="L32" t="n">
         <v>108.8080325753179</v>
@@ -6727,25 +6727,25 @@
         <v>352.3747218720062</v>
       </c>
       <c r="S32" t="n">
-        <v>352.3747218720062</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="T32" t="n">
-        <v>352.3747218720062</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="U32" t="n">
-        <v>352.3747218720062</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="V32" t="n">
-        <v>352.3747218720062</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="W32" t="n">
-        <v>273.9980413101721</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="X32" t="n">
-        <v>273.9980413101721</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="Y32" t="n">
-        <v>185.0145256859281</v>
+        <v>96.03101006168411</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.047494437440124</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="C33" t="n">
-        <v>7.047494437440124</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="D33" t="n">
-        <v>7.047494437440124</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="E33" t="n">
         <v>7.047494437440124</v>
@@ -6809,22 +6809,22 @@
         <v>287.0118951916916</v>
       </c>
       <c r="T33" t="n">
-        <v>198.0283795674476</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="U33" t="n">
-        <v>109.0448639432037</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="V33" t="n">
-        <v>109.0448639432037</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="W33" t="n">
-        <v>109.0448639432037</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="X33" t="n">
-        <v>20.06134831895966</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.06134831895966</v>
+        <v>185.0145256859281</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="C34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="D34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="E34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="F34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="G34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="H34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I34" t="n">
-        <v>277.8550714230523</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J34" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="K34" t="n">
-        <v>282.8941925621287</v>
+        <v>15.06648958421999</v>
       </c>
       <c r="L34" t="n">
-        <v>298.0154376332165</v>
+        <v>30.18773465530782</v>
       </c>
       <c r="M34" t="n">
-        <v>314.4881413954779</v>
+        <v>46.66043841756918</v>
       </c>
       <c r="N34" t="n">
-        <v>331.8460090402925</v>
+        <v>64.01830606238379</v>
       </c>
       <c r="O34" t="n">
-        <v>344.5779323134558</v>
+        <v>76.75022933554703</v>
       </c>
       <c r="P34" t="n">
-        <v>352.3747218720062</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="Q34" t="n">
-        <v>352.3747218720062</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="R34" t="n">
-        <v>352.3747218720062</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="S34" t="n">
-        <v>352.3747218720062</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="T34" t="n">
-        <v>352.3747218720062</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="U34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="V34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="W34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="X34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="Y34" t="n">
-        <v>352.3747218720062</v>
+        <v>7.047494437440124</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.047494437440123</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="C35" t="n">
-        <v>7.047494437440123</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="D35" t="n">
-        <v>7.047494437440123</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="E35" t="n">
-        <v>7.047494437440123</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="F35" t="n">
-        <v>7.047494437440123</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="G35" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="H35" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I35" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J35" t="n">
-        <v>24.78252049490587</v>
+        <v>24.7825204949059</v>
       </c>
       <c r="K35" t="n">
-        <v>59.60773643878166</v>
+        <v>59.60773643878169</v>
       </c>
       <c r="L35" t="n">
         <v>108.8080325753178</v>
@@ -6952,7 +6952,7 @@
         <v>230.3090627719646</v>
       </c>
       <c r="O35" t="n">
-        <v>286.3185995386594</v>
+        <v>286.3185995386593</v>
       </c>
       <c r="P35" t="n">
         <v>328.5150307030227</v>
@@ -6961,16 +6961,16 @@
         <v>352.3747218720061</v>
       </c>
       <c r="R35" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="S35" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="T35" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="U35" t="n">
-        <v>273.9980413101721</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="V35" t="n">
         <v>273.9980413101721</v>
@@ -6979,10 +6979,10 @@
         <v>185.0145256859281</v>
       </c>
       <c r="X35" t="n">
-        <v>96.0310100616841</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.047494437440123</v>
+        <v>96.03101006168411</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.047494437440123</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="C36" t="n">
-        <v>7.047494437440123</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="D36" t="n">
-        <v>7.047494437440123</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="E36" t="n">
-        <v>7.047494437440123</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="F36" t="n">
-        <v>7.047494437440123</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="G36" t="n">
-        <v>7.047494437440123</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="H36" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I36" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J36" t="n">
-        <v>14.55245432966377</v>
+        <v>14.55245432966378</v>
       </c>
       <c r="K36" t="n">
         <v>40.07978517569846</v>
@@ -7043,25 +7043,25 @@
         <v>287.0118951916916</v>
       </c>
       <c r="S36" t="n">
-        <v>211.2862089112416</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="T36" t="n">
-        <v>211.2862089112416</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="U36" t="n">
-        <v>122.3026932869976</v>
+        <v>146.4961158919208</v>
       </c>
       <c r="V36" t="n">
-        <v>33.31917766275365</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="W36" t="n">
-        <v>7.047494437440123</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="X36" t="n">
-        <v>7.047494437440123</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.047494437440123</v>
+        <v>57.51260026767678</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="C37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="D37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="E37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="F37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="G37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="H37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="K37" t="n">
-        <v>282.8941925621287</v>
+        <v>15.06648958421999</v>
       </c>
       <c r="L37" t="n">
-        <v>298.0154376332165</v>
+        <v>30.18773465530782</v>
       </c>
       <c r="M37" t="n">
-        <v>314.4881413954779</v>
+        <v>46.66043841756918</v>
       </c>
       <c r="N37" t="n">
-        <v>331.8460090402925</v>
+        <v>64.01830606238379</v>
       </c>
       <c r="O37" t="n">
-        <v>344.5779323134557</v>
+        <v>76.75022933554703</v>
       </c>
       <c r="P37" t="n">
-        <v>352.3747218720061</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="Q37" t="n">
-        <v>348.6659972925198</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="R37" t="n">
-        <v>312.9893413212321</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="S37" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="T37" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="U37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="V37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="W37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="X37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="Y37" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="C38" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="D38" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="E38" t="n">
         <v>109.2099560794099</v>
@@ -7171,13 +7171,13 @@
         <v>20.22644045516591</v>
       </c>
       <c r="I38" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J38" t="n">
-        <v>24.78252049490595</v>
+        <v>24.7825204949059</v>
       </c>
       <c r="K38" t="n">
-        <v>59.60773643878173</v>
+        <v>59.60773643878169</v>
       </c>
       <c r="L38" t="n">
         <v>108.8080325753179</v>
@@ -7189,37 +7189,37 @@
         <v>230.3090627719646</v>
       </c>
       <c r="O38" t="n">
-        <v>286.3185995386594</v>
+        <v>286.3185995386595</v>
       </c>
       <c r="P38" t="n">
         <v>328.5150307030227</v>
       </c>
       <c r="Q38" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="R38" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="S38" t="n">
-        <v>352.3747218720061</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="T38" t="n">
-        <v>263.3912062477622</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="U38" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="V38" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="W38" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="X38" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="Y38" t="n">
-        <v>174.4076906235182</v>
+        <v>109.2099560794099</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.047494437440123</v>
+        <v>146.4961158919208</v>
       </c>
       <c r="C39" t="n">
-        <v>7.047494437440123</v>
+        <v>146.4961158919208</v>
       </c>
       <c r="D39" t="n">
-        <v>7.047494437440123</v>
+        <v>146.4961158919208</v>
       </c>
       <c r="E39" t="n">
-        <v>7.047494437440123</v>
+        <v>146.4961158919208</v>
       </c>
       <c r="F39" t="n">
-        <v>7.047494437440123</v>
+        <v>146.4961158919208</v>
       </c>
       <c r="G39" t="n">
-        <v>7.047494437440123</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="H39" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I39" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J39" t="n">
-        <v>14.55245432966377</v>
+        <v>14.55245432966378</v>
       </c>
       <c r="K39" t="n">
-        <v>40.07978517569843</v>
+        <v>40.07978517569846</v>
       </c>
       <c r="L39" t="n">
-        <v>81.93184470419641</v>
+        <v>81.93184470419645</v>
       </c>
       <c r="M39" t="n">
         <v>133.9167152178292</v>
@@ -7271,7 +7271,7 @@
         <v>236.9647528833238</v>
       </c>
       <c r="P39" t="n">
-        <v>271.8223704119701</v>
+        <v>271.8223704119702</v>
       </c>
       <c r="Q39" t="n">
         <v>287.0118951916916</v>
@@ -7283,22 +7283,22 @@
         <v>287.0118951916916</v>
       </c>
       <c r="T39" t="n">
-        <v>287.0118951916916</v>
+        <v>235.4796315161648</v>
       </c>
       <c r="U39" t="n">
-        <v>198.0283795674476</v>
+        <v>235.4796315161648</v>
       </c>
       <c r="V39" t="n">
-        <v>198.0283795674476</v>
+        <v>146.4961158919208</v>
       </c>
       <c r="W39" t="n">
-        <v>185.0145256859281</v>
+        <v>146.4961158919208</v>
       </c>
       <c r="X39" t="n">
-        <v>96.0310100616841</v>
+        <v>146.4961158919208</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.047494437440123</v>
+        <v>146.4961158919208</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84.54701889409738</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="C40" t="n">
-        <v>84.54701889409738</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="D40" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="E40" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="F40" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="G40" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="H40" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I40" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J40" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="K40" t="n">
-        <v>15.06648958421998</v>
+        <v>15.06648958421999</v>
       </c>
       <c r="L40" t="n">
-        <v>30.18773465530781</v>
+        <v>30.18773465530782</v>
       </c>
       <c r="M40" t="n">
-        <v>46.66043841756915</v>
+        <v>46.66043841756918</v>
       </c>
       <c r="N40" t="n">
-        <v>64.01830606238374</v>
+        <v>64.01830606238379</v>
       </c>
       <c r="O40" t="n">
-        <v>76.75022933554698</v>
+        <v>76.75022933554703</v>
       </c>
       <c r="P40" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="R40" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="S40" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="T40" t="n">
-        <v>84.54701889409738</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="U40" t="n">
-        <v>84.54701889409738</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="V40" t="n">
-        <v>84.54701889409738</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="W40" t="n">
-        <v>84.54701889409738</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="X40" t="n">
-        <v>84.54701889409738</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="Y40" t="n">
-        <v>84.54701889409738</v>
+        <v>7.047494437440124</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.2099560794099</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="C41" t="n">
-        <v>109.2099560794099</v>
+        <v>85.42417499927426</v>
       </c>
       <c r="D41" t="n">
-        <v>109.2099560794099</v>
+        <v>85.42417499927426</v>
       </c>
       <c r="E41" t="n">
-        <v>109.2099560794099</v>
+        <v>85.42417499927426</v>
       </c>
       <c r="F41" t="n">
-        <v>109.2099560794099</v>
+        <v>20.22644045516591</v>
       </c>
       <c r="G41" t="n">
         <v>20.22644045516591</v>
@@ -7408,16 +7408,16 @@
         <v>20.22644045516591</v>
       </c>
       <c r="I41" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J41" t="n">
-        <v>24.7825204949059</v>
+        <v>24.78252049490591</v>
       </c>
       <c r="K41" t="n">
-        <v>59.60773643878167</v>
+        <v>59.6077364387817</v>
       </c>
       <c r="L41" t="n">
-        <v>108.8080325753178</v>
+        <v>108.8080325753179</v>
       </c>
       <c r="M41" t="n">
         <v>168.6991254940436</v>
@@ -7426,37 +7426,37 @@
         <v>230.3090627719646</v>
       </c>
       <c r="O41" t="n">
-        <v>286.3185995386594</v>
+        <v>286.3185995386595</v>
       </c>
       <c r="P41" t="n">
-        <v>328.5150307030226</v>
+        <v>328.5150307030227</v>
       </c>
       <c r="Q41" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="R41" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="S41" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="T41" t="n">
         <v>263.3912062477622</v>
       </c>
       <c r="U41" t="n">
-        <v>263.3912062477622</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="V41" t="n">
-        <v>263.3912062477622</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="W41" t="n">
-        <v>198.1934717036539</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="X41" t="n">
-        <v>109.2099560794099</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="Y41" t="n">
-        <v>109.2099560794099</v>
+        <v>174.4076906235182</v>
       </c>
     </row>
     <row r="42">
@@ -7484,19 +7484,19 @@
         <v>57.51260026767678</v>
       </c>
       <c r="H42" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I42" t="n">
-        <v>7.047494437440123</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J42" t="n">
-        <v>14.55245432966377</v>
+        <v>14.55245432966378</v>
       </c>
       <c r="K42" t="n">
-        <v>40.07978517569843</v>
+        <v>40.07978517569846</v>
       </c>
       <c r="L42" t="n">
-        <v>81.93184470419641</v>
+        <v>81.93184470419645</v>
       </c>
       <c r="M42" t="n">
         <v>133.9167152178292</v>
@@ -7508,7 +7508,7 @@
         <v>236.9647528833238</v>
       </c>
       <c r="P42" t="n">
-        <v>271.8223704119701</v>
+        <v>271.8223704119702</v>
       </c>
       <c r="Q42" t="n">
         <v>287.0118951916916</v>
@@ -7517,25 +7517,25 @@
         <v>287.0118951916916</v>
       </c>
       <c r="S42" t="n">
-        <v>287.0118951916916</v>
+        <v>211.2862089112416</v>
       </c>
       <c r="T42" t="n">
-        <v>287.0118951916916</v>
+        <v>211.2862089112416</v>
       </c>
       <c r="U42" t="n">
-        <v>198.0283795674476</v>
+        <v>146.4961158919208</v>
       </c>
       <c r="V42" t="n">
-        <v>198.0283795674476</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="W42" t="n">
-        <v>198.0283795674476</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="X42" t="n">
-        <v>198.0283795674476</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="Y42" t="n">
-        <v>146.4961158919208</v>
+        <v>57.51260026767678</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="C43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="D43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="E43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="F43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="G43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="H43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="K43" t="n">
-        <v>282.8941925621288</v>
+        <v>15.06648958421999</v>
       </c>
       <c r="L43" t="n">
-        <v>298.0154376332166</v>
+        <v>30.18773465530782</v>
       </c>
       <c r="M43" t="n">
-        <v>314.488141395478</v>
+        <v>46.66043841756918</v>
       </c>
       <c r="N43" t="n">
-        <v>331.8460090402925</v>
+        <v>64.01830606238379</v>
       </c>
       <c r="O43" t="n">
-        <v>344.5779323134557</v>
+        <v>76.75022933554703</v>
       </c>
       <c r="P43" t="n">
-        <v>352.3747218720061</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="Q43" t="n">
-        <v>352.3747218720061</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="R43" t="n">
-        <v>352.3747218720061</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="S43" t="n">
-        <v>352.3747218720061</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="T43" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="U43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="V43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="W43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="X43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="Y43" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>287.1769873278978</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="C44" t="n">
-        <v>198.1934717036539</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="D44" t="n">
-        <v>198.1934717036539</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="E44" t="n">
-        <v>109.2099560794099</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="F44" t="n">
-        <v>20.22644045516591</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="G44" t="n">
-        <v>20.22644045516591</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="H44" t="n">
-        <v>20.22644045516591</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I44" t="n">
         <v>7.047494437440124</v>
       </c>
       <c r="J44" t="n">
-        <v>24.78252049490587</v>
+        <v>24.78252049490591</v>
       </c>
       <c r="K44" t="n">
-        <v>59.60773643878167</v>
+        <v>59.6077364387817</v>
       </c>
       <c r="L44" t="n">
         <v>108.8080325753179</v>
@@ -7663,37 +7663,37 @@
         <v>230.3090627719646</v>
       </c>
       <c r="O44" t="n">
-        <v>286.3185995386593</v>
+        <v>286.3185995386595</v>
       </c>
       <c r="P44" t="n">
         <v>328.5150307030227</v>
       </c>
       <c r="Q44" t="n">
-        <v>352.3747218720061</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="R44" t="n">
         <v>352.3747218720062</v>
       </c>
       <c r="S44" t="n">
-        <v>352.3747218720062</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="T44" t="n">
-        <v>352.3747218720062</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="U44" t="n">
-        <v>352.3747218720062</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="V44" t="n">
-        <v>352.3747218720062</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="W44" t="n">
-        <v>352.3747218720062</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="X44" t="n">
-        <v>352.3747218720062</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="Y44" t="n">
-        <v>287.1769873278978</v>
+        <v>96.03101006168411</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>96.03101006168411</v>
+        <v>20.06134831895966</v>
       </c>
       <c r="C45" t="n">
-        <v>96.03101006168411</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="D45" t="n">
         <v>7.047494437440124</v>
@@ -7757,22 +7757,22 @@
         <v>287.0118951916916</v>
       </c>
       <c r="T45" t="n">
-        <v>273.9980413101721</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="U45" t="n">
-        <v>185.0145256859281</v>
+        <v>109.0448639432037</v>
       </c>
       <c r="V45" t="n">
-        <v>185.0145256859281</v>
+        <v>20.06134831895966</v>
       </c>
       <c r="W45" t="n">
-        <v>185.0145256859281</v>
+        <v>20.06134831895966</v>
       </c>
       <c r="X45" t="n">
-        <v>185.0145256859281</v>
+        <v>20.06134831895966</v>
       </c>
       <c r="Y45" t="n">
-        <v>96.03101006168411</v>
+        <v>20.06134831895966</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="C46" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="D46" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="E46" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="F46" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="G46" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="H46" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I46" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J46" t="n">
-        <v>274.8751974153489</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="K46" t="n">
-        <v>282.8941925621287</v>
+        <v>15.06648958421999</v>
       </c>
       <c r="L46" t="n">
-        <v>298.0154376332165</v>
+        <v>30.18773465530782</v>
       </c>
       <c r="M46" t="n">
-        <v>314.4881413954779</v>
+        <v>46.66043841756918</v>
       </c>
       <c r="N46" t="n">
-        <v>331.8460090402925</v>
+        <v>64.01830606238379</v>
       </c>
       <c r="O46" t="n">
-        <v>344.5779323134558</v>
+        <v>76.75022933554703</v>
       </c>
       <c r="P46" t="n">
-        <v>352.3747218720062</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="Q46" t="n">
-        <v>352.3747218720062</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="R46" t="n">
-        <v>352.3747218720062</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="S46" t="n">
-        <v>352.3747218720062</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="T46" t="n">
-        <v>352.3747218720062</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="U46" t="n">
-        <v>352.3747218720062</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="V46" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="W46" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="X46" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="Y46" t="n">
-        <v>274.8751974153489</v>
+        <v>84.54701889409745</v>
       </c>
     </row>
   </sheetData>
@@ -22792,28 +22792,28 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>413.6254818117133</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>412.781251350586</v>
       </c>
       <c r="G5" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0364165471253</v>
       </c>
       <c r="H5" t="n">
-        <v>292.7065397078163</v>
+        <v>292.2345970210142</v>
       </c>
       <c r="I5" t="n">
-        <v>26.32956157919251</v>
+        <v>24.55296493005908</v>
       </c>
       <c r="J5" t="n">
-        <v>11.3271920526384</v>
+        <v>7.115653483500664</v>
       </c>
       <c r="K5" t="n">
-        <v>8.648232478941662</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L5" t="n">
-        <v>4.671789743482165</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.473755640880874</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>6.920859413233046</v>
+        <v>0.2941343268911112</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.10441994252907</v>
+        <v>8.128025379424045</v>
       </c>
       <c r="R5" t="n">
-        <v>21.64193954842993</v>
+        <v>18.74720796782874</v>
       </c>
       <c r="S5" t="n">
-        <v>98.46594801952604</v>
+        <v>89.32415377766685</v>
       </c>
       <c r="T5" t="n">
-        <v>217.783151700692</v>
+        <v>217.5814254356876</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7506198904062</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22871,25 +22871,25 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>95.56322574788439</v>
       </c>
       <c r="F6" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>92.99917660853818</v>
+        <v>84.88283164060707</v>
       </c>
       <c r="H6" t="n">
-        <v>51.74077740098654</v>
+        <v>51.50264919965579</v>
       </c>
       <c r="I6" t="n">
-        <v>12.24540854883441</v>
+        <v>11.39649556952178</v>
       </c>
       <c r="J6" t="n">
-        <v>9.835185998134863</v>
+        <v>7.505703897832523</v>
       </c>
       <c r="K6" t="n">
-        <v>3.981455943866639</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.187704076657049</v>
+        <v>5.040345688132874</v>
       </c>
       <c r="R6" t="n">
-        <v>16.59135208004222</v>
+        <v>15.06049703097857</v>
       </c>
       <c r="S6" t="n">
-        <v>78.3924377437292</v>
+        <v>77.93445730202359</v>
       </c>
       <c r="T6" t="n">
-        <v>140.001404757162</v>
+        <v>131.8103338186952</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9130103395574</v>
+        <v>175.784228857053</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -22956,49 +22956,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4781070335314</v>
       </c>
       <c r="H7" t="n">
-        <v>141.5081398339535</v>
+        <v>141.3243555367009</v>
       </c>
       <c r="I7" t="n">
-        <v>95.89527006322407</v>
+        <v>95.27363565084021</v>
       </c>
       <c r="J7" t="n">
-        <v>13.87628484707558</v>
+        <v>12.41484263875958</v>
       </c>
       <c r="K7" t="n">
-        <v>9.855123640234183</v>
+        <v>7.453525154664103</v>
       </c>
       <c r="L7" t="n">
-        <v>7.702385333317634</v>
+        <v>4.629166113207063</v>
       </c>
       <c r="M7" t="n">
-        <v>7.586266198249906</v>
+        <v>4.345987427773778</v>
       </c>
       <c r="N7" t="n">
-        <v>6.116136330339108</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O7" t="n">
-        <v>8.983460966937349</v>
+        <v>6.061704061331429</v>
       </c>
       <c r="P7" t="n">
-        <v>10.81576169638986</v>
+        <v>8.315693914541322</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.61252925040833</v>
+        <v>14.881611906857</v>
       </c>
       <c r="R7" t="n">
-        <v>42.26871705461914</v>
+        <v>41.33927213211291</v>
       </c>
       <c r="S7" t="n">
-        <v>166.7672673841848</v>
+        <v>166.4070276113493</v>
       </c>
       <c r="T7" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4090661296859</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3762607615072</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -23035,19 +23035,19 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.0364165471253</v>
+        <v>399.9967427842381</v>
       </c>
       <c r="H8" t="n">
-        <v>292.2345970210142</v>
+        <v>291.8282880968454</v>
       </c>
       <c r="I8" t="n">
-        <v>16.46127628815132</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J8" t="n">
-        <v>7.415995117306384</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.786362146091513</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -23062,25 +23062,25 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2941343268911112</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03633673751628663</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R8" t="n">
-        <v>10.65551932592098</v>
+        <v>1.196996700384997</v>
       </c>
       <c r="S8" t="n">
-        <v>97.11550078576889</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T8" t="n">
-        <v>217.5814254356876</v>
+        <v>202.3496992791696</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7506198904062</v>
+        <v>255.7474459893752</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>344.7001206177206</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -23108,22 +23108,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>88.59686013031302</v>
       </c>
       <c r="F9" t="n">
-        <v>92.70937201392488</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G9" t="n">
-        <v>92.97452028251483</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H9" t="n">
-        <v>51.50264919965579</v>
+        <v>51.29763783704193</v>
       </c>
       <c r="I9" t="n">
-        <v>11.39649556952178</v>
+        <v>10.66564216510812</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R9" t="n">
-        <v>6.968808389070816</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S9" t="n">
-        <v>69.84276866011584</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T9" t="n">
-        <v>137.2292240488683</v>
+        <v>126.5533272142479</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9113882128454</v>
+        <v>182.9099916776777</v>
       </c>
       <c r="V9" t="n">
         <v>202.9234074721264</v>
@@ -23193,49 +23193,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.4781070335314</v>
+        <v>164.4603107493182</v>
       </c>
       <c r="H10" t="n">
-        <v>141.3243555367009</v>
+        <v>141.1661303916059</v>
       </c>
       <c r="I10" t="n">
-        <v>95.27363565084021</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J10" t="n">
-        <v>12.41484263875958</v>
+        <v>11.15664534489041</v>
       </c>
       <c r="K10" t="n">
-        <v>7.453525154664103</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L10" t="n">
-        <v>4.629166113207063</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M10" t="n">
-        <v>4.345987427773778</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N10" t="n">
-        <v>2.952904146645743</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O10" t="n">
-        <v>6.061704061331429</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P10" t="n">
-        <v>8.315693914541322</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.881611906857</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R10" t="n">
-        <v>41.33927213211291</v>
+        <v>40.53908648012926</v>
       </c>
       <c r="S10" t="n">
-        <v>166.4070276113493</v>
+        <v>166.0968869128348</v>
       </c>
       <c r="T10" t="n">
-        <v>240.4090661296859</v>
+        <v>240.3330274607752</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3762607615072</v>
+        <v>277.3752900550955</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>385.1769727340878</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>388.5867866923227</v>
+        <v>404.7449366559422</v>
       </c>
       <c r="E11" t="n">
-        <v>391.2442625390941</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>390.4000320779668</v>
       </c>
       <c r="G11" t="n">
-        <v>373.0968375490054</v>
+        <v>399.9373748401208</v>
       </c>
       <c r="H11" t="n">
         <v>291.2202861391545</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>12.52577934020787</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>95.15892952120976</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>370.8109894301316</v>
       </c>
     </row>
     <row r="12">
@@ -23348,7 +23348,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>77.63918026243478</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
         <v>62.44862038296181</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>11.77034553962527</v>
       </c>
       <c r="S12" t="n">
-        <v>46.47724650773671</v>
+        <v>76.95015442226369</v>
       </c>
       <c r="T12" t="n">
-        <v>109.2155196590631</v>
+        <v>139.6884275735901</v>
       </c>
       <c r="U12" t="n">
-        <v>182.907901898041</v>
+        <v>152.4349939835141</v>
       </c>
       <c r="V12" t="n">
-        <v>202.9234074721264</v>
+        <v>172.4504995575994</v>
       </c>
       <c r="W12" t="n">
-        <v>194.556163395115</v>
+        <v>167.7156261039996</v>
       </c>
       <c r="X12" t="n">
         <v>161.8425727710037</v>
@@ -23439,10 +23439,10 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J13" t="n">
-        <v>3.08073403102534</v>
+        <v>9.273874939591304</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.291950357779633</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>231.6531663223073</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23503,10 +23503,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>415.6112926832741</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>390.4000320779668</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>369.4644669255939</v>
@@ -23515,7 +23515,7 @@
         <v>260.7473782246275</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.73465952076844</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>12.52577934020787</v>
       </c>
       <c r="S14" t="n">
-        <v>95.15892952120976</v>
+        <v>68.3183922300944</v>
       </c>
       <c r="T14" t="n">
-        <v>217.1478703632754</v>
+        <v>186.6749624487485</v>
       </c>
       <c r="U14" t="n">
         <v>255.7426965538458</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.6377393258621</v>
+        <v>97.1648314113351</v>
       </c>
       <c r="C15" t="n">
         <v>85.85793653314329</v>
@@ -23582,13 +23582,13 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>73.18200647526517</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>77.85133654599872</v>
+        <v>92.92152829748879</v>
       </c>
       <c r="H15" t="n">
         <v>50.99085818637803</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>11.77034553962527</v>
       </c>
       <c r="S15" t="n">
         <v>76.95015442226369</v>
@@ -23633,7 +23633,7 @@
         <v>182.907901898041</v>
       </c>
       <c r="V15" t="n">
-        <v>202.9234074721264</v>
+        <v>176.0828701810111</v>
       </c>
       <c r="W15" t="n">
         <v>194.556163395115</v>
@@ -23676,10 +23676,10 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J16" t="n">
-        <v>6.023220504428087</v>
+        <v>9.273874939591304</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.291950357779633</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.942486473402749</v>
       </c>
       <c r="Q16" t="n">
         <v>11.16148158963455</v>
@@ -23709,7 +23709,7 @@
         <v>240.2192429564045</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3738374869546</v>
+        <v>268.8887462206091</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23737,22 +23737,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>388.5867866923227</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>391.2442625390941</v>
+        <v>391.244262539094</v>
       </c>
       <c r="F17" t="n">
-        <v>390.4000320779668</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>373.0968375490054</v>
+        <v>369.4644669255938</v>
       </c>
       <c r="H17" t="n">
         <v>291.2202861391545</v>
       </c>
       <c r="I17" t="n">
-        <v>20.73465952076844</v>
+        <v>20.73465952076843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>95.15892952120976</v>
       </c>
       <c r="T17" t="n">
-        <v>217.1478703632754</v>
+        <v>190.3073330721601</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7426965538458</v>
+        <v>225.2697886393188</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>100.7972020347467</v>
       </c>
       <c r="C18" t="n">
         <v>116.3308444476703</v>
@@ -23819,7 +23819,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>73.18200647526517</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
         <v>92.70937201392488</v>
@@ -23831,10 +23831,10 @@
         <v>50.99085818637803</v>
       </c>
       <c r="I18" t="n">
-        <v>9.57199082191487</v>
+        <v>9.571990821914868</v>
       </c>
       <c r="J18" t="n">
-        <v>2.499123417806992</v>
+        <v>2.499123417806985</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>11.77034553962527</v>
       </c>
       <c r="S18" t="n">
-        <v>50.10961713114834</v>
+        <v>46.47724650773669</v>
       </c>
       <c r="T18" t="n">
-        <v>139.6884275735901</v>
+        <v>109.2155196590631</v>
       </c>
       <c r="U18" t="n">
         <v>182.907901898041</v>
       </c>
       <c r="V18" t="n">
-        <v>202.9234074721264</v>
+        <v>172.4504995575994</v>
       </c>
       <c r="W18" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>131.3696648564767</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
-        <v>107.8230518457136</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="19">
@@ -23904,7 +23904,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.4336803334017</v>
+        <v>155.9485890670561</v>
       </c>
       <c r="H19" t="n">
         <v>140.9293617846389</v>
@@ -23913,10 +23913,10 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J19" t="n">
-        <v>9.273874939591305</v>
+        <v>9.273874939591302</v>
       </c>
       <c r="K19" t="n">
-        <v>2.291950357779637</v>
+        <v>2.29195035777963</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.942486473402752</v>
+        <v>2.942486473402745</v>
       </c>
       <c r="Q19" t="n">
         <v>11.16148158963455</v>
@@ -23949,7 +23949,7 @@
         <v>277.3738374869546</v>
       </c>
       <c r="V19" t="n">
-        <v>270.4092614517058</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>385.1769727340877</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23977,10 +23977,10 @@
         <v>388.5867866923227</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>391.244262539094</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>406.5581820415862</v>
       </c>
       <c r="G20" t="n">
         <v>399.9373748401208</v>
@@ -23989,7 +23989,7 @@
         <v>291.2202861391545</v>
       </c>
       <c r="I20" t="n">
-        <v>20.73465952076844</v>
+        <v>20.73465952076843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>217.1478703632754</v>
       </c>
       <c r="U20" t="n">
-        <v>241.4279386029384</v>
+        <v>255.7426965538458</v>
       </c>
       <c r="V20" t="n">
-        <v>323.441612810486</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>377.1298909294032</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24053,25 +24053,25 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>85.53301243066731</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>73.18200647526517</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>92.92152829748879</v>
+        <v>62.44862038296178</v>
       </c>
       <c r="H21" t="n">
         <v>50.99085818637803</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.571990821914868</v>
       </c>
       <c r="J21" t="n">
-        <v>2.499123417806988</v>
+        <v>2.499123417806985</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,13 +24101,13 @@
         <v>76.95015442226369</v>
       </c>
       <c r="T21" t="n">
-        <v>139.6884275735901</v>
+        <v>109.2155196590631</v>
       </c>
       <c r="U21" t="n">
-        <v>152.4349939835141</v>
+        <v>152.434993983514</v>
       </c>
       <c r="V21" t="n">
-        <v>172.4504995575994</v>
+        <v>176.082870181011</v>
       </c>
       <c r="W21" t="n">
         <v>194.556163395115</v>
@@ -24129,7 +24129,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>161.7677462235276</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24150,10 +24150,10 @@
         <v>93.93760361421315</v>
       </c>
       <c r="J22" t="n">
-        <v>9.273874939591304</v>
+        <v>9.273874939591302</v>
       </c>
       <c r="K22" t="n">
-        <v>2.291950357779633</v>
+        <v>2.29195035777963</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.942486473402749</v>
+        <v>2.942486473402745</v>
       </c>
       <c r="Q22" t="n">
         <v>11.16148158963455</v>
@@ -24180,7 +24180,7 @@
         <v>165.6327913918166</v>
       </c>
       <c r="T22" t="n">
-        <v>240.2192429564045</v>
+        <v>231.7341516900589</v>
       </c>
       <c r="U22" t="n">
         <v>277.3738374869546</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>338.0569668923989</v>
       </c>
       <c r="C23" t="n">
-        <v>334.5380422188313</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>333.6234899856195</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>332.7792595244922</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>322.14505759611</v>
+        <v>311.6442908843242</v>
       </c>
       <c r="H23" t="n">
         <v>289.1781451697731</v>
@@ -24259,10 +24259,10 @@
         <v>90.61502254307932</v>
       </c>
       <c r="T23" t="n">
-        <v>216.2749815954525</v>
+        <v>128.1813011274509</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7267442748222</v>
+        <v>167.6330638068206</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>127.6377393258621</v>
+        <v>39.54405885786052</v>
       </c>
       <c r="C24" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D24" t="n">
-        <v>14.70787843186626</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E24" t="n">
         <v>103.6549143897921</v>
@@ -24302,7 +24302,7 @@
         <v>4.721157557691967</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>49.96045477193429</v>
       </c>
       <c r="I24" t="n">
         <v>5.898663481595438</v>
@@ -24338,13 +24338,13 @@
         <v>74.9684294176455</v>
       </c>
       <c r="T24" t="n">
-        <v>88.24144986911749</v>
+        <v>51.16471043988751</v>
       </c>
       <c r="U24" t="n">
         <v>182.9008828012124</v>
       </c>
       <c r="V24" t="n">
-        <v>202.9234074721264</v>
+        <v>190.0396921294221</v>
       </c>
       <c r="W24" t="n">
         <v>194.556163395115</v>
@@ -24366,7 +24366,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>93.5283082777824</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24423,7 +24423,7 @@
         <v>277.368958639323</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>202.1698235059606</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>327.5562001806131</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24457,13 +24457,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>399.7379713523258</v>
+        <v>311.6442908843242</v>
       </c>
       <c r="H26" t="n">
         <v>289.1781451697731</v>
       </c>
       <c r="I26" t="n">
-        <v>13.04715655754852</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>216.2749815954525</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7267442748222</v>
+        <v>191.1809870761549</v>
       </c>
       <c r="V26" t="n">
-        <v>265.8208402570115</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>304.333755734655</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>319.5091183759287</v>
       </c>
       <c r="Y26" t="n">
-        <v>323.6909835884427</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24536,10 +24536,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>92.81483802569352</v>
+        <v>4.721157557691953</v>
       </c>
       <c r="H27" t="n">
-        <v>49.96045477193429</v>
+        <v>37.07673942923</v>
       </c>
       <c r="I27" t="n">
         <v>5.898663481595438</v>
@@ -24575,22 +24575,22 @@
         <v>74.9684294176455</v>
       </c>
       <c r="T27" t="n">
-        <v>139.2583909078891</v>
+        <v>51.1647104398875</v>
       </c>
       <c r="U27" t="n">
-        <v>170.0171674585081</v>
+        <v>182.9008828012124</v>
       </c>
       <c r="V27" t="n">
-        <v>114.8297270041248</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W27" t="n">
-        <v>194.556163395115</v>
+        <v>106.4624829271134</v>
       </c>
       <c r="X27" t="n">
-        <v>73.74889230300217</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y27" t="n">
-        <v>50.20227929223897</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="28">
@@ -24609,7 +24609,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>87.82159457658423</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24618,7 +24618,7 @@
         <v>164.3442347934871</v>
       </c>
       <c r="H28" t="n">
-        <v>140.1341096206706</v>
+        <v>63.40958040857981</v>
       </c>
       <c r="I28" t="n">
         <v>91.24773228659839</v>
@@ -24694,13 +24694,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>322.14505759611</v>
+        <v>311.6442908843242</v>
       </c>
       <c r="H29" t="n">
-        <v>201.0844647017715</v>
+        <v>289.1781451697731</v>
       </c>
       <c r="I29" t="n">
-        <v>13.04715655754852</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2.521342075077769</v>
+        <v>90.61502254307932</v>
       </c>
       <c r="T29" t="n">
-        <v>128.1813011274509</v>
+        <v>216.2749815954525</v>
       </c>
       <c r="U29" t="n">
         <v>255.7267442748222</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>265.8208402570115</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>304.333755734655</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>343.0570416452629</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24761,25 +24761,25 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C30" t="n">
-        <v>116.3308444476703</v>
+        <v>28.23716397966871</v>
       </c>
       <c r="D30" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E30" t="n">
-        <v>15.56123392179059</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F30" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>92.81483802569352</v>
+        <v>4.721157557691967</v>
       </c>
       <c r="H30" t="n">
-        <v>49.96045477193429</v>
+        <v>42.97540291082539</v>
       </c>
       <c r="I30" t="n">
-        <v>5.898663481595438</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,13 +24812,13 @@
         <v>74.9684294176455</v>
       </c>
       <c r="T30" t="n">
-        <v>51.16471043988751</v>
+        <v>139.2583909078891</v>
       </c>
       <c r="U30" t="n">
-        <v>170.0171674585081</v>
+        <v>182.9008828012124</v>
       </c>
       <c r="V30" t="n">
-        <v>114.8297270041248</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W30" t="n">
         <v>194.556163395115</v>
@@ -24827,7 +24827,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y30" t="n">
-        <v>138.2959597602405</v>
+        <v>50.20227929223897</v>
       </c>
     </row>
     <row r="31">
@@ -24855,7 +24855,7 @@
         <v>164.3442347934871</v>
       </c>
       <c r="H31" t="n">
-        <v>63.40958040857981</v>
+        <v>140.1341096206706</v>
       </c>
       <c r="I31" t="n">
         <v>91.24773228659839</v>
@@ -24888,7 +24888,7 @@
         <v>35.31988941157481</v>
       </c>
       <c r="S31" t="n">
-        <v>164.0739995734861</v>
+        <v>87.34947036139533</v>
       </c>
       <c r="T31" t="n">
         <v>239.8370665585874</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>327.5562001806132</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>334.5380422188313</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24931,7 +24931,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>399.7379713523258</v>
+        <v>311.6442908843242</v>
       </c>
       <c r="H32" t="n">
         <v>289.1781451697731</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>90.61502254307932</v>
+        <v>2.521342075077769</v>
       </c>
       <c r="T32" t="n">
-        <v>216.2749815954525</v>
+        <v>128.1813011274509</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7267442748222</v>
+        <v>178.1338305186064</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>314.8345224464408</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>313.190216876657</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>114.7540239831577</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C33" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D33" t="n">
-        <v>102.8015588998678</v>
+        <v>14.70787843186626</v>
       </c>
       <c r="E33" t="n">
-        <v>103.6549143897921</v>
+        <v>15.56123392179059</v>
       </c>
       <c r="F33" t="n">
         <v>92.70937201392488</v>
@@ -25049,10 +25049,10 @@
         <v>74.9684294176455</v>
       </c>
       <c r="T33" t="n">
-        <v>51.16471043988751</v>
+        <v>126.3746755651847</v>
       </c>
       <c r="U33" t="n">
-        <v>94.80720233321084</v>
+        <v>182.9008828012124</v>
       </c>
       <c r="V33" t="n">
         <v>202.9234074721264</v>
@@ -25095,10 +25095,10 @@
         <v>140.1341096206706</v>
       </c>
       <c r="I34" t="n">
-        <v>17.47327834213399</v>
+        <v>91.24773228659839</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.950075267626374</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>239.8370665585874</v>
       </c>
       <c r="U34" t="n">
-        <v>277.368958639323</v>
+        <v>200.6444294272322</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -25168,7 +25168,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>399.7379713523258</v>
+        <v>311.6442908843242</v>
       </c>
       <c r="H35" t="n">
         <v>289.1781451697731</v>
@@ -25210,16 +25210,16 @@
         <v>216.2749815954525</v>
       </c>
       <c r="U35" t="n">
-        <v>178.1338305186065</v>
+        <v>255.7267442748222</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>276.3216069687973</v>
       </c>
       <c r="W35" t="n">
         <v>304.333755734655</v>
       </c>
       <c r="X35" t="n">
-        <v>319.5091183759287</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>313.190216876657</v>
@@ -25250,7 +25250,7 @@
         <v>92.81483802569352</v>
       </c>
       <c r="H36" t="n">
-        <v>49.96045477193429</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>5.898663481595438</v>
@@ -25283,19 +25283,19 @@
         <v>5.146189892547323</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>74.9684294176455</v>
       </c>
       <c r="T36" t="n">
-        <v>139.2583909078891</v>
+        <v>51.16471043988751</v>
       </c>
       <c r="U36" t="n">
-        <v>94.80720233321085</v>
+        <v>131.8839417624408</v>
       </c>
       <c r="V36" t="n">
-        <v>114.8297270041249</v>
+        <v>114.8297270041248</v>
       </c>
       <c r="W36" t="n">
-        <v>168.5471970020546</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X36" t="n">
         <v>161.8425727710037</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>3.671637333691518</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>35.31988941157481</v>
       </c>
       <c r="S37" t="n">
-        <v>126.3409971066617</v>
+        <v>164.0739995734861</v>
       </c>
       <c r="T37" t="n">
         <v>239.8370665585874</v>
       </c>
       <c r="U37" t="n">
-        <v>277.368958639323</v>
+        <v>200.6444294272322</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -25399,7 +25399,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>357.1714132549538</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>90.61502254307932</v>
+        <v>2.521342075077769</v>
       </c>
       <c r="T38" t="n">
         <v>128.1813011274509</v>
       </c>
       <c r="U38" t="n">
-        <v>167.6330638068207</v>
+        <v>191.1809870761549</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25484,13 +25484,13 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>92.81483802569352</v>
+        <v>4.721157557691967</v>
       </c>
       <c r="H39" t="n">
-        <v>49.96045477193429</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>5.89866348159544</v>
+        <v>5.898663481595438</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>5.146189892547326</v>
+        <v>5.146189892547323</v>
       </c>
       <c r="S39" t="n">
         <v>74.9684294176455</v>
       </c>
       <c r="T39" t="n">
-        <v>139.2583909078891</v>
+        <v>88.24144986911749</v>
       </c>
       <c r="U39" t="n">
-        <v>94.80720233321085</v>
+        <v>182.9008828012124</v>
       </c>
       <c r="V39" t="n">
-        <v>202.9234074721264</v>
+        <v>114.8297270041248</v>
       </c>
       <c r="W39" t="n">
-        <v>181.6724480524107</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X39" t="n">
-        <v>73.74889230300218</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y39" t="n">
-        <v>50.20227929223898</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>84.95907593240632</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25572,7 +25572,7 @@
         <v>91.24773228659839</v>
       </c>
       <c r="J40" t="n">
-        <v>2.950075267626378</v>
+        <v>2.950075267626374</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.671637333691525</v>
+        <v>3.671637333691518</v>
       </c>
       <c r="R40" t="n">
         <v>35.31988941157481</v>
@@ -25605,7 +25605,7 @@
         <v>239.8370665585874</v>
       </c>
       <c r="U40" t="n">
-        <v>277.368958639323</v>
+        <v>200.6444294272322</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>334.5380422188313</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,10 +25639,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>356.3271827938265</v>
       </c>
       <c r="G41" t="n">
-        <v>311.6442908843242</v>
+        <v>399.7379713523258</v>
       </c>
       <c r="H41" t="n">
         <v>289.1781451697731</v>
@@ -25684,16 +25684,16 @@
         <v>128.1813011274509</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7267442748222</v>
+        <v>167.6330638068206</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>327.8816790039893</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>319.5091183759287</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.54405885786053</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C42" t="n">
         <v>116.3308444476703</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5.89866348159544</v>
+        <v>5.898663481595438</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>5.146189892547326</v>
+        <v>5.146189892547323</v>
       </c>
       <c r="S42" t="n">
-        <v>74.9684294176455</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>139.2583909078891</v>
       </c>
       <c r="U42" t="n">
-        <v>94.80720233321085</v>
+        <v>118.7586907120848</v>
       </c>
       <c r="V42" t="n">
-        <v>202.9234074721264</v>
+        <v>114.8297270041248</v>
       </c>
       <c r="W42" t="n">
         <v>194.556163395115</v>
@@ -25775,7 +25775,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y42" t="n">
-        <v>87.27901872146897</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="43">
@@ -25809,7 +25809,7 @@
         <v>91.24773228659839</v>
       </c>
       <c r="J43" t="n">
-        <v>2.950075267626378</v>
+        <v>2.950075267626374</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.671637333691525</v>
+        <v>3.671637333691518</v>
       </c>
       <c r="R43" t="n">
         <v>35.31988941157481</v>
@@ -25839,10 +25839,10 @@
         <v>164.0739995734861</v>
       </c>
       <c r="T43" t="n">
-        <v>163.1125373464968</v>
+        <v>239.8370665585874</v>
       </c>
       <c r="U43" t="n">
-        <v>277.368958639323</v>
+        <v>200.6444294272322</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25867,25 +25867,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>334.5380422188313</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>333.6234899856195</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>332.7792595244922</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>399.7379713523258</v>
       </c>
       <c r="H44" t="n">
-        <v>289.1781451697731</v>
+        <v>201.0844647017715</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>13.04715655754852</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.61502254307932</v>
+        <v>2.521342075077769</v>
       </c>
       <c r="T44" t="n">
         <v>216.2749815954525</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7267442748222</v>
+        <v>178.1338305186064</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>304.333755734655</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>336.7381401459913</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -25946,10 +25946,10 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C45" t="n">
-        <v>116.3308444476703</v>
+        <v>103.4471291049659</v>
       </c>
       <c r="D45" t="n">
-        <v>14.70787843186626</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
         <v>103.6549143897921</v>
@@ -25997,13 +25997,13 @@
         <v>74.9684294176455</v>
       </c>
       <c r="T45" t="n">
-        <v>126.3746755651847</v>
+        <v>51.16471043988751</v>
       </c>
       <c r="U45" t="n">
         <v>94.80720233321084</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>114.8297270041248</v>
       </c>
       <c r="W45" t="n">
         <v>194.556163395115</v>
@@ -26012,7 +26012,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
-        <v>50.20227929223897</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.3442347934871</v>
+        <v>87.61970558139632</v>
       </c>
       <c r="H46" t="n">
         <v>140.1341096206706</v>
@@ -26082,7 +26082,7 @@
         <v>277.368958639323</v>
       </c>
       <c r="V46" t="n">
-        <v>202.1698235059606</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>42491.94987589619</v>
+        <v>52040.39339004314</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52040.39339004313</v>
+        <v>60036.99748846782</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>73113.14404694825</v>
+        <v>73113.14404694822</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73113.14404694822</v>
+        <v>73113.14404694825</v>
       </c>
     </row>
     <row r="8">
@@ -26316,10 +26316,10 @@
         <v>12590.20737063591</v>
       </c>
       <c r="C2" t="n">
-        <v>12590.20737063591</v>
+        <v>15419.37581927204</v>
       </c>
       <c r="D2" t="n">
-        <v>15419.37581927204</v>
+        <v>17788.73999658306</v>
       </c>
       <c r="E2" t="n">
         <v>21663.15379168837</v>
@@ -26328,13 +26328,13 @@
         <v>21663.15379168837</v>
       </c>
       <c r="G2" t="n">
+        <v>21663.15379168837</v>
+      </c>
+      <c r="H2" t="n">
         <v>21663.15379168838</v>
       </c>
-      <c r="H2" t="n">
-        <v>21663.15379168837</v>
-      </c>
       <c r="I2" t="n">
-        <v>33572.92673915478</v>
+        <v>33572.92673915477</v>
       </c>
       <c r="J2" t="n">
         <v>33572.92673915478</v>
@@ -26343,16 +26343,16 @@
         <v>33572.92673915477</v>
       </c>
       <c r="L2" t="n">
-        <v>33572.92673915478</v>
+        <v>33572.92673915477</v>
       </c>
       <c r="M2" t="n">
         <v>33572.92673915478</v>
       </c>
       <c r="N2" t="n">
-        <v>33572.92673915478</v>
+        <v>33572.92673915477</v>
       </c>
       <c r="O2" t="n">
-        <v>33572.92673915478</v>
+        <v>33572.92673915477</v>
       </c>
       <c r="P2" t="n">
         <v>33572.92673915478</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51097.22904562252</v>
+        <v>51097.22904562249</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>13052.44432012518</v>
       </c>
       <c r="D3" t="n">
-        <v>12330.61955979058</v>
+        <v>10615.78218664946</v>
       </c>
       <c r="E3" t="n">
-        <v>26475.67781544676</v>
+        <v>16467.01179601842</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>52660.14149671479</v>
+        <v>52660.14149671476</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2082.541722390512</v>
       </c>
       <c r="L3" t="n">
-        <v>2047.933570069076</v>
+        <v>1763.124440516755</v>
       </c>
       <c r="M3" t="n">
-        <v>5577.489367613796</v>
+        <v>3841.443190252546</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.031614315388385</v>
       </c>
       <c r="D4" t="n">
-        <v>5.031614315388385</v>
+        <v>10.91115737735348</v>
       </c>
       <c r="E4" t="n">
         <v>22.39251918675428</v>
@@ -26432,34 +26432,34 @@
         <v>22.39251918675428</v>
       </c>
       <c r="G4" t="n">
-        <v>22.39251918675426</v>
+        <v>22.39251918675428</v>
       </c>
       <c r="H4" t="n">
         <v>22.39251918675428</v>
       </c>
       <c r="I4" t="n">
-        <v>62.45231285262349</v>
+        <v>62.45231285262348</v>
       </c>
       <c r="J4" t="n">
-        <v>62.45231285262349</v>
+        <v>62.45231285262348</v>
       </c>
       <c r="K4" t="n">
-        <v>62.45231285262349</v>
+        <v>62.45231285262348</v>
       </c>
       <c r="L4" t="n">
-        <v>62.45231285262349</v>
+        <v>62.45231285262348</v>
       </c>
       <c r="M4" t="n">
         <v>62.45231285262348</v>
       </c>
       <c r="N4" t="n">
-        <v>62.45231285262346</v>
+        <v>62.45231285262348</v>
       </c>
       <c r="O4" t="n">
-        <v>62.45231285262346</v>
+        <v>62.45231285262348</v>
       </c>
       <c r="P4" t="n">
-        <v>62.45231285262349</v>
+        <v>62.45231285262348</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>34783.58232194311</v>
       </c>
       <c r="C5" t="n">
-        <v>34783.58232194311</v>
+        <v>35525.45101845335</v>
       </c>
       <c r="D5" t="n">
-        <v>35525.45101845335</v>
+        <v>36164.14694569838</v>
       </c>
       <c r="E5" t="n">
         <v>3795.707566887205</v>
@@ -26484,16 +26484,16 @@
         <v>3795.707566887204</v>
       </c>
       <c r="G5" t="n">
-        <v>3795.707566887204</v>
+        <v>3795.707566887207</v>
       </c>
       <c r="H5" t="n">
-        <v>3795.707566887204</v>
+        <v>3795.707566887207</v>
       </c>
       <c r="I5" t="n">
         <v>8380.365801579241</v>
       </c>
       <c r="J5" t="n">
-        <v>8380.365801579241</v>
+        <v>8380.365801579243</v>
       </c>
       <c r="K5" t="n">
         <v>8380.365801579241</v>
@@ -26505,10 +26505,10 @@
         <v>8380.365801579241</v>
       </c>
       <c r="N5" t="n">
-        <v>8380.365801579239</v>
+        <v>8380.365801579241</v>
       </c>
       <c r="O5" t="n">
-        <v>8380.365801579239</v>
+        <v>8380.365801579241</v>
       </c>
       <c r="P5" t="n">
         <v>8380.365801579241</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73290.60399692971</v>
+        <v>-74668.02187089113</v>
       </c>
       <c r="C6" t="n">
-        <v>-22193.3749513072</v>
+        <v>-34523.28670477933</v>
       </c>
       <c r="D6" t="n">
-        <v>-32441.72637328727</v>
+        <v>-30347.02733819139</v>
       </c>
       <c r="E6" t="n">
-        <v>-8630.624109832348</v>
+        <v>57.32995076613861</v>
       </c>
       <c r="F6" t="n">
-        <v>17845.05370561441</v>
+        <v>16524.34174678456</v>
       </c>
       <c r="G6" t="n">
-        <v>17845.05370561442</v>
+        <v>16524.34174678456</v>
       </c>
       <c r="H6" t="n">
-        <v>17845.05370561441</v>
+        <v>16524.34174678456</v>
       </c>
       <c r="I6" t="n">
-        <v>-27530.03287199188</v>
+        <v>-28776.30874990005</v>
       </c>
       <c r="J6" t="n">
-        <v>25130.10862472291</v>
+        <v>23883.83274681472</v>
       </c>
       <c r="K6" t="n">
-        <v>25130.1086247229</v>
+        <v>21801.2910244242</v>
       </c>
       <c r="L6" t="n">
-        <v>23082.17505465384</v>
+        <v>22120.70830629796</v>
       </c>
       <c r="M6" t="n">
-        <v>19552.61925710912</v>
+        <v>20042.38955656217</v>
       </c>
       <c r="N6" t="n">
-        <v>25130.10862472291</v>
+        <v>23883.83274681471</v>
       </c>
       <c r="O6" t="n">
-        <v>25130.10862472291</v>
+        <v>23883.83274681471</v>
       </c>
       <c r="P6" t="n">
-        <v>25130.10862472291</v>
+        <v>23883.83274681472</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>53.02671201573919</v>
       </c>
       <c r="C3" t="n">
-        <v>53.02671201573919</v>
+        <v>64.4897407809798</v>
       </c>
       <c r="D3" t="n">
-        <v>64.4897407809798</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="E3" t="n">
         <v>89.12636539834699</v>
@@ -26752,10 +26752,10 @@
         <v>89.12636539834699</v>
       </c>
       <c r="G3" t="n">
-        <v>89.12636539834698</v>
+        <v>89.126365398347</v>
       </c>
       <c r="H3" t="n">
-        <v>89.12636539834699</v>
+        <v>89.126365398347</v>
       </c>
       <c r="I3" t="n">
         <v>138.7279829873737</v>
@@ -26792,10 +26792,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="D4" t="n">
-        <v>8.091688641907758</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="E4" t="n">
         <v>30.47290791452698</v>
@@ -26804,16 +26804,16 @@
         <v>30.47290791452697</v>
       </c>
       <c r="G4" t="n">
-        <v>30.47290791452697</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="H4" t="n">
-        <v>30.47290791452697</v>
+        <v>30.47290791452701</v>
       </c>
       <c r="I4" t="n">
         <v>88.09368046800155</v>
       </c>
       <c r="J4" t="n">
-        <v>88.09368046800155</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="K4" t="n">
         <v>88.09368046800155</v>
@@ -26822,13 +26822,13 @@
         <v>88.09368046800155</v>
       </c>
       <c r="M4" t="n">
-        <v>88.09368046800154</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="N4" t="n">
-        <v>88.09368046800154</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="O4" t="n">
-        <v>88.09368046800154</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="P4" t="n">
         <v>88.09368046800155</v>
@@ -26962,13 +26962,13 @@
         <v>53.02671201573919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>11.46302876524061</v>
       </c>
       <c r="D3" t="n">
-        <v>11.46302876524061</v>
+        <v>9.868848518197112</v>
       </c>
       <c r="E3" t="n">
-        <v>24.63662461736719</v>
+        <v>14.76777609917008</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>49.60161758902672</v>
+        <v>49.6016175890267</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="D4" t="n">
-        <v>8.091688641907758</v>
+        <v>6.966365617571366</v>
       </c>
       <c r="E4" t="n">
-        <v>22.38121927261923</v>
+        <v>15.41485365504786</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>57.62077255347458</v>
+        <v>57.62077255347454</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>8.091688641907744</v>
       </c>
       <c r="L4" t="n">
-        <v>8.091688641907758</v>
+        <v>6.966365617571366</v>
       </c>
       <c r="M4" t="n">
-        <v>22.38121927261921</v>
+        <v>15.41485365504786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="L4" t="n">
-        <v>8.091688641907758</v>
+        <v>6.966365617571366</v>
       </c>
       <c r="M4" t="n">
-        <v>22.38121927261923</v>
+        <v>15.41485365504786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2592552393205216</v>
       </c>
       <c r="H5" t="n">
-        <v>2.183155032889201</v>
+        <v>2.655097719691293</v>
       </c>
       <c r="I5" t="n">
-        <v>8.218340964770997</v>
+        <v>9.994937613904419</v>
       </c>
       <c r="J5" t="n">
-        <v>18.09276743294812</v>
+        <v>22.00396436828014</v>
       </c>
       <c r="K5" t="n">
-        <v>27.11636831586768</v>
+        <v>32.97823864871783</v>
       </c>
       <c r="L5" t="n">
-        <v>33.64025268914076</v>
+        <v>40.91242117907325</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>45.52295154133957</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>45.37131147635378</v>
       </c>
       <c r="O5" t="n">
-        <v>35.91720371514322</v>
+        <v>43.68159120406557</v>
       </c>
       <c r="P5" t="n">
-        <v>30.65450239699825</v>
+        <v>37.28122748334019</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.02025466206897</v>
+        <v>27.996649225174</v>
       </c>
       <c r="R5" t="n">
-        <v>13.39071034636654</v>
+        <v>16.28544192696773</v>
       </c>
       <c r="S5" t="n">
-        <v>4.857673166064953</v>
+        <v>5.907778766016392</v>
       </c>
       <c r="T5" t="n">
-        <v>0.933163545121199</v>
+        <v>1.134889810125584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.02074041914564172</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1387137820572018</v>
       </c>
       <c r="H6" t="n">
-        <v>1.10155490432696</v>
+        <v>1.339683105657713</v>
       </c>
       <c r="I6" t="n">
-        <v>3.926978201165592</v>
+        <v>4.775891180478222</v>
       </c>
       <c r="J6" t="n">
-        <v>10.77592833519847</v>
+        <v>13.10541043550081</v>
       </c>
       <c r="K6" t="n">
-        <v>18.4177778894667</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>30.11853412606043</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>31.18846915423574</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>24.87861394041439</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>31.26357836412998</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>26.48824843511603</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.55933421232145</v>
+        <v>17.70669260084562</v>
       </c>
       <c r="R6" t="n">
-        <v>7.081567314101927</v>
+        <v>8.612422363165571</v>
       </c>
       <c r="S6" t="n">
-        <v>2.118567220628824</v>
+        <v>2.576547662334427</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.5591138846954756</v>
       </c>
       <c r="U6" t="n">
-        <v>0.007503780002227248</v>
+        <v>0.009125906714289598</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09562193970051329</v>
+        <v>0.116292975178816</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8501659729736551</v>
+        <v>1.033950270226201</v>
       </c>
       <c r="I7" t="n">
-        <v>2.87561251390271</v>
+        <v>3.497246926286577</v>
       </c>
       <c r="J7" t="n">
-        <v>6.760471136826289</v>
+        <v>8.221913345142292</v>
       </c>
       <c r="K7" t="n">
-        <v>11.10953081247781</v>
+        <v>13.51112929804789</v>
       </c>
       <c r="L7" t="n">
-        <v>14.21637456238359</v>
+        <v>17.28959378249416</v>
       </c>
       <c r="M7" t="n">
-        <v>14.98917369323591</v>
+        <v>18.22945246371204</v>
       </c>
       <c r="N7" t="n">
-        <v>14.63276464526128</v>
+        <v>17.79599682895465</v>
       </c>
       <c r="O7" t="n">
-        <v>13.5157265314871</v>
+        <v>16.43748343709302</v>
       </c>
       <c r="P7" t="n">
-        <v>11.56503896159662</v>
+        <v>14.06510674344516</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.007033514376618</v>
+        <v>9.737950857927949</v>
       </c>
       <c r="R7" t="n">
-        <v>4.299510125079442</v>
+        <v>5.228955047585671</v>
       </c>
       <c r="S7" t="n">
-        <v>1.666429621871672</v>
+        <v>2.026669394707184</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4968881666731229</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005215742165482549</v>
+        <v>0.006343253191571791</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2592552393205216</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H8" t="n">
-        <v>2.655097719691293</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I8" t="n">
-        <v>9.994937613904419</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J8" t="n">
-        <v>22.00396436828014</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K8" t="n">
-        <v>32.97823864871783</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L8" t="n">
-        <v>40.91242117907325</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M8" t="n">
-        <v>45.52295154133957</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N8" t="n">
-        <v>45.37131147635378</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O8" t="n">
-        <v>43.68159120406557</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P8" t="n">
-        <v>37.28122748334019</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.996649225174</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R8" t="n">
-        <v>16.28544192696773</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S8" t="n">
-        <v>5.907778766016392</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T8" t="n">
-        <v>1.134889810125584</v>
+        <v>1.30856170716441</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02074041914564172</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1387137820572018</v>
+        <v>0.1599411166057768</v>
       </c>
       <c r="H9" t="n">
-        <v>1.339683105657713</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I9" t="n">
-        <v>4.775891180478222</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J9" t="n">
-        <v>13.10541043550081</v>
+        <v>15.11092803861859</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L9" t="n">
-        <v>30.11853412606043</v>
+        <v>34.72756569109202</v>
       </c>
       <c r="M9" t="n">
-        <v>31.18846915423574</v>
+        <v>28.36924136188455</v>
       </c>
       <c r="N9" t="n">
-        <v>29.43471685544942</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O9" t="n">
-        <v>26.70747544909495</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P9" t="n">
-        <v>26.48824843511603</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q9" t="n">
-        <v>17.70669260084562</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R9" t="n">
-        <v>8.612422363165571</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S9" t="n">
-        <v>2.576547662334427</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5591138846954756</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009125906714289598</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.116292975178816</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H10" t="n">
-        <v>1.033950270226201</v>
+        <v>1.192175415321231</v>
       </c>
       <c r="I10" t="n">
-        <v>3.497246926286577</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J10" t="n">
-        <v>8.221913345142292</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K10" t="n">
-        <v>13.51112929804789</v>
+        <v>15.57873395481116</v>
       </c>
       <c r="L10" t="n">
-        <v>17.28959378249416</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M10" t="n">
-        <v>18.22945246371204</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N10" t="n">
-        <v>17.79599682895465</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O10" t="n">
-        <v>16.43748343709302</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P10" t="n">
-        <v>14.06510674344516</v>
+        <v>16.21748642682376</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.737950857927949</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R10" t="n">
-        <v>5.228955047585671</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S10" t="n">
-        <v>2.026669394707184</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4968881666731229</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006343253191571791</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>41.62453508533178</v>
       </c>
       <c r="M12" t="n">
-        <v>48.57386914209911</v>
+        <v>48.5738691420991</v>
       </c>
       <c r="N12" t="n">
         <v>49.85947492223188</v>
@@ -31861,7 +31861,7 @@
         <v>36.60739336521917</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.47107300522163</v>
+        <v>24.47107300522162</v>
       </c>
       <c r="R12" t="n">
         <v>11.90257385451887</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3582969463250127</v>
+        <v>0.3582969463250128</v>
       </c>
       <c r="H17" t="n">
-        <v>3.669408601551037</v>
+        <v>3.669408601551039</v>
       </c>
       <c r="I17" t="n">
         <v>13.81324302319507</v>
       </c>
       <c r="J17" t="n">
-        <v>30.41000544815257</v>
+        <v>30.41000544815259</v>
       </c>
       <c r="K17" t="n">
-        <v>45.57671518609037</v>
+        <v>45.57671518609038</v>
       </c>
       <c r="L17" t="n">
-        <v>56.54194535718449</v>
+        <v>56.54194535718451</v>
       </c>
       <c r="M17" t="n">
-        <v>62.91380867639193</v>
+        <v>62.91380867639195</v>
       </c>
       <c r="N17" t="n">
-        <v>63.93181987513788</v>
+        <v>63.9318198751379</v>
       </c>
       <c r="O17" t="n">
-        <v>60.36900461511853</v>
+        <v>60.36900461511855</v>
       </c>
       <c r="P17" t="n">
-        <v>51.52354875271977</v>
+        <v>51.52354875271979</v>
       </c>
       <c r="Q17" t="n">
-        <v>38.69203936245524</v>
+        <v>38.69203936245525</v>
       </c>
       <c r="R17" t="n">
-        <v>22.5068705545886</v>
+        <v>22.50687055458861</v>
       </c>
       <c r="S17" t="n">
-        <v>8.164691664381236</v>
+        <v>8.164691664381238</v>
       </c>
       <c r="T17" t="n">
         <v>1.568444882537744</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02866375570600101</v>
+        <v>0.02866375570600102</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1917057670832369</v>
+        <v>0.191705767083237</v>
       </c>
       <c r="H18" t="n">
-        <v>1.851474118935472</v>
+        <v>1.851474118935473</v>
       </c>
       <c r="I18" t="n">
-        <v>6.600395928085131</v>
+        <v>6.600395928085133</v>
       </c>
       <c r="J18" t="n">
-        <v>18.11199091552634</v>
+        <v>18.11199091552635</v>
       </c>
       <c r="K18" t="n">
-        <v>30.95627731010321</v>
+        <v>30.95627731010322</v>
       </c>
       <c r="L18" t="n">
-        <v>41.62453508533177</v>
+        <v>41.62453508533179</v>
       </c>
       <c r="M18" t="n">
-        <v>48.5738691420991</v>
+        <v>48.57386914209911</v>
       </c>
       <c r="N18" t="n">
-        <v>49.85947492223187</v>
+        <v>49.85947492223188</v>
       </c>
       <c r="O18" t="n">
-        <v>45.61167871475593</v>
+        <v>45.61167871475595</v>
       </c>
       <c r="P18" t="n">
-        <v>36.60739336521916</v>
+        <v>36.60739336521917</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.47107300522161</v>
+        <v>24.47107300522162</v>
       </c>
       <c r="R18" t="n">
-        <v>11.90257385451887</v>
+        <v>11.90257385451888</v>
       </c>
       <c r="S18" t="n">
-        <v>3.560850542094332</v>
+        <v>3.560850542094333</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7727087717083099</v>
+        <v>0.7727087717083101</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01261222151863401</v>
+        <v>0.01261222151863402</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1607196753084945</v>
+        <v>0.1607196753084946</v>
       </c>
       <c r="H19" t="n">
-        <v>1.428944022288252</v>
+        <v>1.428944022288253</v>
       </c>
       <c r="I19" t="n">
-        <v>4.833278962913637</v>
+        <v>4.833278962913639</v>
       </c>
       <c r="J19" t="n">
-        <v>11.36288104431056</v>
+        <v>11.36288104431057</v>
       </c>
       <c r="K19" t="n">
-        <v>18.67270409493236</v>
+        <v>18.67270409493237</v>
       </c>
       <c r="L19" t="n">
-        <v>23.89463245450109</v>
+        <v>23.8946324545011</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19353964858519</v>
+        <v>25.1935396485852</v>
       </c>
       <c r="N19" t="n">
-        <v>24.59449358607173</v>
+        <v>24.59449358607174</v>
       </c>
       <c r="O19" t="n">
-        <v>22.71699556087703</v>
+        <v>22.71699556087704</v>
       </c>
       <c r="P19" t="n">
-        <v>19.43831418458373</v>
+        <v>19.43831418458374</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.45808117515039</v>
+        <v>13.4580811751504</v>
       </c>
       <c r="R19" t="n">
-        <v>7.226541037052852</v>
+        <v>7.226541037052854</v>
       </c>
       <c r="S19" t="n">
-        <v>2.800905614239854</v>
+        <v>2.800905614239855</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6867113399544764</v>
+        <v>0.6867113399544766</v>
       </c>
       <c r="U19" t="n">
-        <v>0.008766527744099712</v>
+        <v>0.008766527744099714</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3582969463250127</v>
+        <v>0.3582969463250128</v>
       </c>
       <c r="H20" t="n">
-        <v>3.669408601551038</v>
+        <v>3.669408601551039</v>
       </c>
       <c r="I20" t="n">
         <v>13.81324302319507</v>
       </c>
       <c r="J20" t="n">
-        <v>30.41000544815258</v>
+        <v>30.41000544815259</v>
       </c>
       <c r="K20" t="n">
         <v>45.57671518609038</v>
       </c>
       <c r="L20" t="n">
-        <v>56.5419453571845</v>
+        <v>56.54194535718451</v>
       </c>
       <c r="M20" t="n">
-        <v>62.91380867639194</v>
+        <v>62.91380867639195</v>
       </c>
       <c r="N20" t="n">
-        <v>63.93181987513789</v>
+        <v>63.9318198751379</v>
       </c>
       <c r="O20" t="n">
-        <v>60.36900461511854</v>
+        <v>60.36900461511855</v>
       </c>
       <c r="P20" t="n">
-        <v>51.52354875271978</v>
+        <v>51.52354875271979</v>
       </c>
       <c r="Q20" t="n">
         <v>38.69203936245525</v>
       </c>
       <c r="R20" t="n">
-        <v>22.5068705545886</v>
+        <v>22.50687055458861</v>
       </c>
       <c r="S20" t="n">
-        <v>8.164691664381236</v>
+        <v>8.164691664381238</v>
       </c>
       <c r="T20" t="n">
         <v>1.568444882537744</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02866375570600101</v>
+        <v>0.02866375570600102</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1917057670832369</v>
+        <v>0.191705767083237</v>
       </c>
       <c r="H21" t="n">
         <v>1.851474118935473</v>
       </c>
       <c r="I21" t="n">
-        <v>6.600395928085132</v>
+        <v>6.600395928085133</v>
       </c>
       <c r="J21" t="n">
         <v>18.11199091552635</v>
@@ -32557,7 +32557,7 @@
         <v>30.95627731010322</v>
       </c>
       <c r="L21" t="n">
-        <v>41.62453508533178</v>
+        <v>41.62453508533179</v>
       </c>
       <c r="M21" t="n">
         <v>48.57386914209911</v>
@@ -32566,7 +32566,7 @@
         <v>49.85947492223188</v>
       </c>
       <c r="O21" t="n">
-        <v>45.61167871475593</v>
+        <v>45.61167871475595</v>
       </c>
       <c r="P21" t="n">
         <v>36.60739336521917</v>
@@ -32575,16 +32575,16 @@
         <v>24.47107300522162</v>
       </c>
       <c r="R21" t="n">
-        <v>11.90257385451887</v>
+        <v>11.90257385451888</v>
       </c>
       <c r="S21" t="n">
         <v>3.560850542094333</v>
       </c>
       <c r="T21" t="n">
-        <v>0.77270877170831</v>
+        <v>0.7727087717083101</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01261222151863401</v>
+        <v>0.01261222151863402</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1607196753084945</v>
+        <v>0.1607196753084946</v>
       </c>
       <c r="H22" t="n">
         <v>1.428944022288253</v>
       </c>
       <c r="I22" t="n">
-        <v>4.833278962913638</v>
+        <v>4.833278962913639</v>
       </c>
       <c r="J22" t="n">
-        <v>11.36288104431056</v>
+        <v>11.36288104431057</v>
       </c>
       <c r="K22" t="n">
-        <v>18.67270409493236</v>
+        <v>18.67270409493237</v>
       </c>
       <c r="L22" t="n">
         <v>23.8946324545011</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19353964858519</v>
+        <v>25.1935396485852</v>
       </c>
       <c r="N22" t="n">
         <v>24.59449358607174</v>
@@ -32654,13 +32654,13 @@
         <v>13.4580811751504</v>
       </c>
       <c r="R22" t="n">
-        <v>7.226541037052853</v>
+        <v>7.226541037052854</v>
       </c>
       <c r="S22" t="n">
-        <v>2.800905614239854</v>
+        <v>2.800905614239855</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6867113399544765</v>
+        <v>0.6867113399544766</v>
       </c>
       <c r="U22" t="n">
         <v>0.008766527744099714</v>
@@ -33657,7 +33657,7 @@
         <v>21.50074598641498</v>
       </c>
       <c r="J35" t="n">
-        <v>47.33412722040042</v>
+        <v>47.33412722040045</v>
       </c>
       <c r="K35" t="n">
         <v>70.94158659670407</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5577004341200947</v>
+        <v>0.5577004341200948</v>
       </c>
       <c r="H38" t="n">
-        <v>5.711549570932422</v>
+        <v>5.711549570932423</v>
       </c>
       <c r="I38" t="n">
-        <v>21.50074598641497</v>
+        <v>21.50074598641498</v>
       </c>
       <c r="J38" t="n">
-        <v>47.33412722040044</v>
+        <v>47.33412722040045</v>
       </c>
       <c r="K38" t="n">
-        <v>70.94158659670406</v>
+        <v>70.94158659670407</v>
       </c>
       <c r="L38" t="n">
-        <v>88.00931125740694</v>
+        <v>88.00931125740695</v>
       </c>
       <c r="M38" t="n">
-        <v>97.92731635269016</v>
+        <v>97.92731635269018</v>
       </c>
       <c r="N38" t="n">
-        <v>99.51188271113389</v>
+        <v>99.51188271113391</v>
       </c>
       <c r="O38" t="n">
-        <v>93.96624901935219</v>
+        <v>93.9662490193522</v>
       </c>
       <c r="P38" t="n">
-        <v>80.19801955201234</v>
+        <v>80.19801955201235</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.22537275508643</v>
+        <v>60.22537275508644</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479644</v>
@@ -33924,10 +33924,10 @@
         <v>12.70859864251167</v>
       </c>
       <c r="T38" t="n">
-        <v>2.441333650360716</v>
+        <v>2.441333650360717</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04461603472960757</v>
+        <v>0.04461603472960758</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,43 +33964,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2983960388785019</v>
+        <v>0.298396038878502</v>
       </c>
       <c r="H39" t="n">
-        <v>2.881877533379216</v>
+        <v>2.881877533379217</v>
       </c>
       <c r="I39" t="n">
         <v>10.27372326840456</v>
       </c>
       <c r="J39" t="n">
-        <v>28.19188190123601</v>
+        <v>28.19188190123602</v>
       </c>
       <c r="K39" t="n">
-        <v>48.18441650609563</v>
+        <v>48.18441650609564</v>
       </c>
       <c r="L39" t="n">
-        <v>64.78989431877297</v>
+        <v>64.78989431877298</v>
       </c>
       <c r="M39" t="n">
-        <v>75.60675072811864</v>
+        <v>75.60675072811866</v>
       </c>
       <c r="N39" t="n">
-        <v>77.6078364449837</v>
+        <v>77.60783644498372</v>
       </c>
       <c r="O39" t="n">
-        <v>70.9960084256232</v>
+        <v>70.99600842562322</v>
       </c>
       <c r="P39" t="n">
-        <v>56.98055588022902</v>
+        <v>56.98055588022903</v>
       </c>
       <c r="Q39" t="n">
-        <v>38.08999261192947</v>
+        <v>38.08999261192948</v>
       </c>
       <c r="R39" t="n">
         <v>18.52672950159682</v>
       </c>
       <c r="S39" t="n">
-        <v>5.54257554671252</v>
+        <v>5.542575546712522</v>
       </c>
       <c r="T39" t="n">
         <v>1.2027454374094</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2501652152231328</v>
+        <v>0.2501652152231329</v>
       </c>
       <c r="H40" t="n">
         <v>2.224196186256583</v>
       </c>
       <c r="I40" t="n">
-        <v>7.523150290528397</v>
+        <v>7.523150290528399</v>
       </c>
       <c r="J40" t="n">
         <v>17.68668071627549</v>
@@ -34061,28 +34061,28 @@
         <v>37.19274481599196</v>
       </c>
       <c r="M40" t="n">
-        <v>39.21453460084071</v>
+        <v>39.21453460084073</v>
       </c>
       <c r="N40" t="n">
         <v>38.28210061682726</v>
       </c>
       <c r="O40" t="n">
-        <v>35.35971605717519</v>
+        <v>35.3597160571752</v>
       </c>
       <c r="P40" t="n">
-        <v>30.25634566662325</v>
+        <v>30.25634566662326</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.94792543109342</v>
+        <v>20.94792543109343</v>
       </c>
       <c r="R40" t="n">
         <v>11.24833776812377</v>
       </c>
       <c r="S40" t="n">
-        <v>4.359697432570414</v>
+        <v>4.359697432570415</v>
       </c>
       <c r="T40" t="n">
-        <v>1.068887737771567</v>
+        <v>1.068887737771568</v>
       </c>
       <c r="U40" t="n">
         <v>0.01364537537580726</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5577004341200947</v>
+        <v>0.5577004341200948</v>
       </c>
       <c r="H41" t="n">
-        <v>5.711549570932422</v>
+        <v>5.711549570932423</v>
       </c>
       <c r="I41" t="n">
-        <v>21.50074598641497</v>
+        <v>21.50074598641498</v>
       </c>
       <c r="J41" t="n">
-        <v>47.33412722040044</v>
+        <v>47.33412722040045</v>
       </c>
       <c r="K41" t="n">
-        <v>70.94158659670406</v>
+        <v>70.94158659670407</v>
       </c>
       <c r="L41" t="n">
-        <v>88.00931125740694</v>
+        <v>88.00931125740695</v>
       </c>
       <c r="M41" t="n">
-        <v>97.92731635269016</v>
+        <v>97.92731635269018</v>
       </c>
       <c r="N41" t="n">
-        <v>99.51188271113389</v>
+        <v>99.51188271113391</v>
       </c>
       <c r="O41" t="n">
-        <v>93.96624901935219</v>
+        <v>93.9662490193522</v>
       </c>
       <c r="P41" t="n">
-        <v>80.19801955201234</v>
+        <v>80.19801955201235</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.22537275508643</v>
+        <v>60.22537275508644</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479644</v>
@@ -34161,10 +34161,10 @@
         <v>12.70859864251167</v>
       </c>
       <c r="T41" t="n">
-        <v>2.441333650360716</v>
+        <v>2.441333650360717</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04461603472960757</v>
+        <v>0.04461603472960758</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,43 +34201,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2983960388785019</v>
+        <v>0.298396038878502</v>
       </c>
       <c r="H42" t="n">
-        <v>2.881877533379216</v>
+        <v>2.881877533379217</v>
       </c>
       <c r="I42" t="n">
         <v>10.27372326840456</v>
       </c>
       <c r="J42" t="n">
-        <v>28.19188190123601</v>
+        <v>28.19188190123602</v>
       </c>
       <c r="K42" t="n">
-        <v>48.18441650609563</v>
+        <v>48.18441650609564</v>
       </c>
       <c r="L42" t="n">
-        <v>64.78989431877297</v>
+        <v>64.78989431877298</v>
       </c>
       <c r="M42" t="n">
-        <v>75.60675072811864</v>
+        <v>75.60675072811866</v>
       </c>
       <c r="N42" t="n">
-        <v>77.6078364449837</v>
+        <v>77.60783644498372</v>
       </c>
       <c r="O42" t="n">
-        <v>70.9960084256232</v>
+        <v>70.99600842562322</v>
       </c>
       <c r="P42" t="n">
-        <v>56.98055588022902</v>
+        <v>56.98055588022903</v>
       </c>
       <c r="Q42" t="n">
-        <v>38.08999261192947</v>
+        <v>38.08999261192948</v>
       </c>
       <c r="R42" t="n">
         <v>18.52672950159682</v>
       </c>
       <c r="S42" t="n">
-        <v>5.54257554671252</v>
+        <v>5.542575546712522</v>
       </c>
       <c r="T42" t="n">
         <v>1.2027454374094</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2501652152231328</v>
+        <v>0.2501652152231329</v>
       </c>
       <c r="H43" t="n">
         <v>2.224196186256583</v>
       </c>
       <c r="I43" t="n">
-        <v>7.523150290528397</v>
+        <v>7.523150290528399</v>
       </c>
       <c r="J43" t="n">
         <v>17.68668071627549</v>
@@ -34298,28 +34298,28 @@
         <v>37.19274481599196</v>
       </c>
       <c r="M43" t="n">
-        <v>39.21453460084071</v>
+        <v>39.21453460084073</v>
       </c>
       <c r="N43" t="n">
         <v>38.28210061682726</v>
       </c>
       <c r="O43" t="n">
-        <v>35.35971605717519</v>
+        <v>35.3597160571752</v>
       </c>
       <c r="P43" t="n">
-        <v>30.25634566662325</v>
+        <v>30.25634566662326</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.94792543109342</v>
+        <v>20.94792543109343</v>
       </c>
       <c r="R43" t="n">
         <v>11.24833776812377</v>
       </c>
       <c r="S43" t="n">
-        <v>4.359697432570414</v>
+        <v>4.359697432570415</v>
       </c>
       <c r="T43" t="n">
-        <v>1.068887737771567</v>
+        <v>1.068887737771568</v>
       </c>
       <c r="U43" t="n">
         <v>0.01364537537580726</v>
@@ -34941,16 +34941,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>7.603447411830871</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.535585726872722</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>4.717407230287364</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L8" t="n">
-        <v>2.600378746450325</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M8" t="n">
-        <v>8.091688641907758</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N8" t="n">
-        <v>8.091688641907758</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="O8" t="n">
-        <v>6.290631848041471</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L9" t="n">
-        <v>7.603447411830871</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M9" t="n">
-        <v>8.091688641907758</v>
+        <v>5.272460849556576</v>
       </c>
       <c r="N9" t="n">
-        <v>8.091688641907758</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="O9" t="n">
-        <v>3.535585726872726</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P9" t="n">
-        <v>4.717407230287364</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>19.10944837110222</v>
       </c>
       <c r="M12" t="n">
-        <v>25.47708862977113</v>
+        <v>25.47708862977112</v>
       </c>
       <c r="N12" t="n">
         <v>28.51644670869021</v>
@@ -35509,7 +35509,7 @@
         <v>14.8365521603905</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.724034716243128</v>
+        <v>1.724034716243118</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9900459625660503</v>
+        <v>0.9900459625660609</v>
       </c>
       <c r="K17" t="n">
-        <v>9.812114391281028</v>
+        <v>9.812114391281042</v>
       </c>
       <c r="L17" t="n">
-        <v>18.22990292456156</v>
+        <v>18.22990292456159</v>
       </c>
       <c r="M17" t="n">
-        <v>25.48254577696012</v>
+        <v>25.48254577696014</v>
       </c>
       <c r="N17" t="n">
-        <v>26.65219704069186</v>
+        <v>26.65219704069187</v>
       </c>
       <c r="O17" t="n">
-        <v>22.97804525909443</v>
+        <v>22.97804525909445</v>
       </c>
       <c r="P17" t="n">
-        <v>13.94818694248847</v>
+        <v>13.94818694248849</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.567364757857199</v>
+        <v>2.567364757857213</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>8.557043476769877</v>
+        <v>8.557043476769888</v>
       </c>
       <c r="L18" t="n">
-        <v>19.10944837110221</v>
+        <v>19.10944837110223</v>
       </c>
       <c r="M18" t="n">
-        <v>25.47708862977112</v>
+        <v>25.47708862977113</v>
       </c>
       <c r="N18" t="n">
-        <v>28.5164467086902</v>
+        <v>28.51644670869022</v>
       </c>
       <c r="O18" t="n">
-        <v>22.4397889925337</v>
+        <v>22.43978899253372</v>
       </c>
       <c r="P18" t="n">
-        <v>14.8365521603905</v>
+        <v>14.83655216039051</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.724034716243114</v>
+        <v>1.724034716243121</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.975872558799871</v>
+        <v>1.975872558799878</v>
       </c>
       <c r="M19" t="n">
-        <v>2.618099757099372</v>
+        <v>2.61809975709938</v>
       </c>
       <c r="N19" t="n">
-        <v>3.845592610471339</v>
+        <v>3.845592610471346</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2178080624525833</v>
+        <v>0.2178080624525904</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9900459625660538</v>
+        <v>0.9900459625660609</v>
       </c>
       <c r="K20" t="n">
-        <v>9.812114391281035</v>
+        <v>9.812114391281042</v>
       </c>
       <c r="L20" t="n">
-        <v>18.22990292456158</v>
+        <v>18.22990292456159</v>
       </c>
       <c r="M20" t="n">
-        <v>25.48254577696013</v>
+        <v>25.48254577696014</v>
       </c>
       <c r="N20" t="n">
         <v>26.65219704069187</v>
       </c>
       <c r="O20" t="n">
-        <v>22.97804525909444</v>
+        <v>22.97804525909445</v>
       </c>
       <c r="P20" t="n">
-        <v>13.94818694248848</v>
+        <v>13.94818694248849</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.567364757857206</v>
+        <v>2.567364757857213</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>8.557043476769884</v>
+        <v>8.557043476769888</v>
       </c>
       <c r="L21" t="n">
-        <v>19.10944837110222</v>
+        <v>19.10944837110223</v>
       </c>
       <c r="M21" t="n">
         <v>25.47708862977113</v>
       </c>
       <c r="N21" t="n">
-        <v>28.51644670869021</v>
+        <v>28.51644670869022</v>
       </c>
       <c r="O21" t="n">
-        <v>22.43978899253371</v>
+        <v>22.43978899253372</v>
       </c>
       <c r="P21" t="n">
-        <v>14.8365521603905</v>
+        <v>14.83655216039051</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.724034716243118</v>
+        <v>1.724034716243121</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.975872558799875</v>
+        <v>1.975872558799878</v>
       </c>
       <c r="M22" t="n">
-        <v>2.618099757099376</v>
+        <v>2.61809975709938</v>
       </c>
       <c r="N22" t="n">
-        <v>3.845592610471343</v>
+        <v>3.845592610471346</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2178080624525869</v>
+        <v>0.2178080624525904</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>17.91416773481389</v>
+        <v>17.91416773481392</v>
       </c>
       <c r="K35" t="n">
         <v>35.17698580189473</v>
@@ -37545,25 +37545,25 @@
         <v>17.91416773481392</v>
       </c>
       <c r="K38" t="n">
-        <v>35.17698580189472</v>
+        <v>35.17698580189473</v>
       </c>
       <c r="L38" t="n">
-        <v>49.69726882478401</v>
+        <v>49.69726882478403</v>
       </c>
       <c r="M38" t="n">
-        <v>60.49605345325834</v>
+        <v>60.49605345325837</v>
       </c>
       <c r="N38" t="n">
-        <v>62.23225987668787</v>
+        <v>62.23225987668788</v>
       </c>
       <c r="O38" t="n">
-        <v>56.57528966332809</v>
+        <v>56.57528966332811</v>
       </c>
       <c r="P38" t="n">
-        <v>42.62265774178104</v>
+        <v>42.62265774178105</v>
       </c>
       <c r="Q38" t="n">
-        <v>24.10069815048838</v>
+        <v>24.1006981504884</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.580767567902672</v>
+        <v>7.580767567902679</v>
       </c>
       <c r="K39" t="n">
-        <v>25.78518267276229</v>
+        <v>25.78518267276231</v>
       </c>
       <c r="L39" t="n">
-        <v>42.27480760454341</v>
+        <v>42.27480760454343</v>
       </c>
       <c r="M39" t="n">
-        <v>52.50997021579066</v>
+        <v>52.50997021579067</v>
       </c>
       <c r="N39" t="n">
-        <v>56.26480823144204</v>
+        <v>56.26480823144205</v>
       </c>
       <c r="O39" t="n">
-        <v>47.82411870340098</v>
+        <v>47.824118703401</v>
       </c>
       <c r="P39" t="n">
         <v>35.20971467540036</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.099995097757429</v>
+        <v>8.099995097757436</v>
       </c>
       <c r="L40" t="n">
         <v>15.27398492029074</v>
       </c>
       <c r="M40" t="n">
-        <v>16.6390947093549</v>
+        <v>16.63909470935491</v>
       </c>
       <c r="N40" t="n">
         <v>17.53319964122687</v>
       </c>
       <c r="O40" t="n">
-        <v>12.86052855875074</v>
+        <v>12.86052855875075</v>
       </c>
       <c r="P40" t="n">
-        <v>7.87554500863677</v>
+        <v>7.875545008636777</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>17.91416773481392</v>
       </c>
       <c r="K41" t="n">
-        <v>35.17698580189472</v>
+        <v>35.17698580189473</v>
       </c>
       <c r="L41" t="n">
-        <v>49.69726882478401</v>
+        <v>49.69726882478403</v>
       </c>
       <c r="M41" t="n">
-        <v>60.49605345325834</v>
+        <v>60.49605345325837</v>
       </c>
       <c r="N41" t="n">
-        <v>62.23225987668787</v>
+        <v>62.23225987668788</v>
       </c>
       <c r="O41" t="n">
-        <v>56.57528966332809</v>
+        <v>56.57528966332811</v>
       </c>
       <c r="P41" t="n">
-        <v>42.62265774178104</v>
+        <v>42.62265774178105</v>
       </c>
       <c r="Q41" t="n">
-        <v>24.10069815048838</v>
+        <v>24.1006981504884</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.580767567902672</v>
+        <v>7.580767567902679</v>
       </c>
       <c r="K42" t="n">
-        <v>25.78518267276229</v>
+        <v>25.78518267276231</v>
       </c>
       <c r="L42" t="n">
-        <v>42.27480760454341</v>
+        <v>42.27480760454343</v>
       </c>
       <c r="M42" t="n">
-        <v>52.50997021579066</v>
+        <v>52.50997021579067</v>
       </c>
       <c r="N42" t="n">
-        <v>56.26480823144204</v>
+        <v>56.26480823144205</v>
       </c>
       <c r="O42" t="n">
-        <v>47.82411870340098</v>
+        <v>47.824118703401</v>
       </c>
       <c r="P42" t="n">
         <v>35.20971467540036</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.099995097757429</v>
+        <v>8.099995097757436</v>
       </c>
       <c r="L43" t="n">
         <v>15.27398492029074</v>
       </c>
       <c r="M43" t="n">
-        <v>16.6390947093549</v>
+        <v>16.63909470935491</v>
       </c>
       <c r="N43" t="n">
         <v>17.53319964122687</v>
       </c>
       <c r="O43" t="n">
-        <v>12.86052855875074</v>
+        <v>12.86052855875075</v>
       </c>
       <c r="P43" t="n">
-        <v>7.87554500863677</v>
+        <v>7.875545008636777</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
